--- a/structs/example1.xlsx
+++ b/structs/example1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t xml:space="preserve">variabile</t>
   </si>
@@ -96,6 +96,27 @@
     <t xml:space="preserve">stop</t>
   </si>
   <si>
+    <t xml:space="preserve">Inserimento erroneo: deve essere un intero &gt;=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altezza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altezza (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire l'altezza in metri (es 1.8 = 1 metro e 80 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento erroneo: deve essere un valore tra 0 e 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">sex</t>
   </si>
   <si>
@@ -111,43 +132,7 @@
     <t xml:space="preserve">Inserire il sesso attuale del paziente</t>
   </si>
   <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Età alla diagnosi (anni compiuti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserire l'età in anni compiuti alla diagnosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deve essere un valore &gt;= 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peso (kg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserire il peso in kg (es 70.8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">altezza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altezza (m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserire l'altezza in metri (es 1.8 = 1 metro e 80 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deve essere un valore tra 0 e 3</t>
+    <t xml:space="preserve">Inserimento erroneo: maschio o femmina</t>
   </si>
   <si>
     <t xml:space="preserve">diabete</t>
@@ -160,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">Inserire se il paziente è diabetico oppure no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento erroneo: deve essere sì o no</t>
   </si>
   <si>
     <t xml:space="preserve">data_arr</t>
@@ -428,8 +416,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -449,10 +441,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,34 +529,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="37.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="31.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="43.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="44.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,376 +571,7297 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="0" t="str">
+      <c r="L2" s="0" t="str">
         <f aca="false">B2</f>
         <v>Identificativo paziente</v>
       </c>
+      <c r="M2" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="N2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P2" s="0" t="str">
-        <f aca="false">CONCATENATE(M2," erroneo")</f>
-        <v>Identificativo paziente erroneo</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">L2</f>
+        <v>Identificativo paziente</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="0" t="str">
+      <c r="L3" s="0" t="str">
         <f aca="false">B3</f>
-        <v>Sesso</v>
+        <v>Altezza (m)</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="0" t="str">
-        <f aca="false">CONCATENATE(M3," erroneo")</f>
-        <v>Sesso erroneo</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">L3</f>
+        <v>Altezza (m)</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="0" t="str">
+      <c r="L4" s="0" t="str">
         <f aca="false">B4</f>
-        <v>Età alla diagnosi (anni compiuti)</v>
+        <v>Sesso</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P4" s="0" t="str">
-        <f aca="false">CONCATENATE(M4," erroneo")</f>
-        <v>Età alla diagnosi (anni compiuti) erroneo</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">L4</f>
+        <v>Sesso</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="0" t="str">
+      <c r="L5" s="0" t="str">
         <f aca="false">B5</f>
-        <v>Peso (kg)</v>
+        <v>Paziente diabetico</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="0" t="str">
-        <f aca="false">CONCATENATE(M5," erroneo")</f>
-        <v>Peso (kg) erroneo</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">L5</f>
+        <v>Paziente diabetico</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="0" t="str">
+      <c r="L6" s="0" t="str">
         <f aca="false">B6</f>
-        <v>Altezza (m)</v>
+        <v>Data arruolamento</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P6" s="0" t="str">
-        <f aca="false">CONCATENATE(M6," erroneo")</f>
-        <v>Altezza (m) erroneo</v>
+        <f aca="false">L6</f>
+        <v>Data arruolamento</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="0" t="str">
-        <f aca="false">B7</f>
-        <v>Paziente diabetico</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="0" t="str">
-        <f aca="false">CONCATENATE(M7," erroneo")</f>
-        <v>Paziente diabetico erroneo</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>44562</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="0" t="str">
-        <f aca="false">B8</f>
-        <v>Data arruolamento</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="0" t="str">
-        <f aca="false">CONCATENATE(M8," erroneo")</f>
-        <v>Data arruolamento erroneo</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
+      <c r="C7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="O57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="O58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="O59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="O61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="O65" s="4"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="O66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="O67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="O68" s="4"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="O69" s="4"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="O70" s="4"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="O73" s="4"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="O74" s="4"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="O76" s="4"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="O78" s="4"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="O81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="O82" s="4"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="O83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="O84" s="4"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="O85" s="4"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="O86" s="4"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="O89" s="4"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="O90" s="4"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="O93" s="4"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="O94" s="4"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="O95" s="4"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="O97" s="4"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="O98" s="4"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="O99" s="4"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="O100" s="4"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="O101" s="4"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="O102" s="4"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="O103" s="4"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="O104" s="4"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="O105" s="4"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="O106" s="4"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="O107" s="4"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="O108" s="4"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="O109" s="4"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="O110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="3"/>
+      <c r="E111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="O111" s="4"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="O112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="O113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="3"/>
+      <c r="E114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="O114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="3"/>
+      <c r="E115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="O115" s="4"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="3"/>
+      <c r="E116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="O116" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="3"/>
+      <c r="E117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="O117" s="4"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="3"/>
+      <c r="E118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="O118" s="4"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="O119" s="4"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="3"/>
+      <c r="E120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="O120" s="4"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="3"/>
+      <c r="E121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="O121" s="4"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="3"/>
+      <c r="E122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="O122" s="4"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="3"/>
+      <c r="E123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="O123" s="4"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="3"/>
+      <c r="E124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="O124" s="4"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="3"/>
+      <c r="E125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="O125" s="4"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="3"/>
+      <c r="E126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="O126" s="4"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="3"/>
+      <c r="E127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="O127" s="4"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="3"/>
+      <c r="E128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="O128" s="4"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="3"/>
+      <c r="E129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="O129" s="4"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="3"/>
+      <c r="E130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="O130" s="4"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="3"/>
+      <c r="E131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="O131" s="4"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="3"/>
+      <c r="E132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="O132" s="4"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="3"/>
+      <c r="E133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="O133" s="4"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="3"/>
+      <c r="E134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="O134" s="4"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="3"/>
+      <c r="E135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="O135" s="4"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="3"/>
+      <c r="E136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="O136" s="4"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="3"/>
+      <c r="E137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="O137" s="4"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="3"/>
+      <c r="E138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="O138" s="4"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="3"/>
+      <c r="E139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="O139" s="4"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="3"/>
+      <c r="E140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="O140" s="4"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="3"/>
+      <c r="E141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="O141" s="4"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="3"/>
+      <c r="E142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="O142" s="4"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="3"/>
+      <c r="E143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="O143" s="4"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="3"/>
+      <c r="E144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="O144" s="4"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="3"/>
+      <c r="E145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="O145" s="4"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="3"/>
+      <c r="E146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="O146" s="4"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="3"/>
+      <c r="E147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="O147" s="4"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="3"/>
+      <c r="E148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="O148" s="4"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="3"/>
+      <c r="E149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="O149" s="4"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="3"/>
+      <c r="E150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="O150" s="4"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="3"/>
+      <c r="E151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="O151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="3"/>
+      <c r="E152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="O152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="3"/>
+      <c r="E153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="O153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="3"/>
+      <c r="E154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="O154" s="4"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="3"/>
+      <c r="E155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="O155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="3"/>
+      <c r="E156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="O156" s="4"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="3"/>
+      <c r="E157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="O157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="3"/>
+      <c r="E158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="O158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="3"/>
+      <c r="E159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="O159" s="4"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="3"/>
+      <c r="E160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="O160" s="4"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="3"/>
+      <c r="E161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="O161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="3"/>
+      <c r="E162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="O162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="3"/>
+      <c r="E163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="O163" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="3"/>
+      <c r="E164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="O164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="3"/>
+      <c r="E165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="O165" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="3"/>
+      <c r="E166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="O166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="3"/>
+      <c r="E167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="O167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="3"/>
+      <c r="E168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="O168" s="4"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="3"/>
+      <c r="E169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="O169" s="4"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="3"/>
+      <c r="E170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="O170" s="4"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="3"/>
+      <c r="E171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="O171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="3"/>
+      <c r="E172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="O172" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="3"/>
+      <c r="E173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="O173" s="4"/>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="3"/>
+      <c r="E174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="O174" s="4"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="3"/>
+      <c r="E175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="O175" s="4"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="3"/>
+      <c r="E176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="O176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="3"/>
+      <c r="E177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="O177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="3"/>
+      <c r="E178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="O178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="3"/>
+      <c r="E179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="O179" s="4"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="3"/>
+      <c r="E180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="O180" s="4"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="3"/>
+      <c r="E181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="O181" s="4"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="3"/>
+      <c r="E182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="O182" s="4"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="3"/>
+      <c r="E183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="O183" s="4"/>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="3"/>
+      <c r="E184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="O184" s="4"/>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="3"/>
+      <c r="E185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="O185" s="4"/>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="3"/>
+      <c r="E186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="O186" s="4"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="3"/>
+      <c r="E187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="O187" s="4"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="3"/>
+      <c r="E188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="O188" s="4"/>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="3"/>
+      <c r="E189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="O189" s="4"/>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="3"/>
+      <c r="E190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="O190" s="4"/>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="3"/>
+      <c r="E191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="O191" s="4"/>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="3"/>
+      <c r="E192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="O192" s="4"/>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="3"/>
+      <c r="E193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="O193" s="4"/>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="3"/>
+      <c r="E194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="O194" s="4"/>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="3"/>
+      <c r="E195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="O195" s="4"/>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="3"/>
+      <c r="E196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="O196" s="4"/>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="3"/>
+      <c r="E197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="O197" s="4"/>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="3"/>
+      <c r="E198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="O198" s="4"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="3"/>
+      <c r="E199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="O199" s="4"/>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="3"/>
+      <c r="E200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="O200" s="4"/>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="3"/>
+      <c r="E201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="O201" s="4"/>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="3"/>
+      <c r="E202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="O202" s="4"/>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="3"/>
+      <c r="E203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="O203" s="4"/>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="3"/>
+      <c r="E204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="O204" s="4"/>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="3"/>
+      <c r="E205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="O205" s="4"/>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="3"/>
+      <c r="E206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="O206" s="4"/>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="3"/>
+      <c r="E207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="O207" s="4"/>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="3"/>
+      <c r="E208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="O208" s="4"/>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="3"/>
+      <c r="E209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="O209" s="4"/>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="3"/>
+      <c r="E210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="O210" s="4"/>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="3"/>
+      <c r="E211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="O211" s="4"/>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="3"/>
+      <c r="E212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="O212" s="4"/>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="3"/>
+      <c r="E213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="O213" s="4"/>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="3"/>
+      <c r="E214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="O214" s="4"/>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="3"/>
+      <c r="E215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="O215" s="4"/>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="3"/>
+      <c r="E216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="O216" s="4"/>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="3"/>
+      <c r="E217" s="4"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="O217" s="4"/>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="3"/>
+      <c r="E218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="O218" s="4"/>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="3"/>
+      <c r="E219" s="4"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="O219" s="4"/>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="3"/>
+      <c r="E220" s="4"/>
+      <c r="I220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="O220" s="4"/>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="3"/>
+      <c r="E221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="O221" s="4"/>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="3"/>
+      <c r="E222" s="4"/>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="O222" s="4"/>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="3"/>
+      <c r="E223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="O223" s="4"/>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="3"/>
+      <c r="E224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="O224" s="4"/>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="3"/>
+      <c r="E225" s="4"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="O225" s="4"/>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="3"/>
+      <c r="E226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="O226" s="4"/>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="3"/>
+      <c r="E227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="O227" s="4"/>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="3"/>
+      <c r="E228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="O228" s="4"/>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="3"/>
+      <c r="E229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="O229" s="4"/>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="3"/>
+      <c r="E230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="O230" s="4"/>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="3"/>
+      <c r="E231" s="4"/>
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="O231" s="4"/>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C232" s="3"/>
+      <c r="E232" s="4"/>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="O232" s="4"/>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="3"/>
+      <c r="E233" s="4"/>
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="O233" s="4"/>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="3"/>
+      <c r="E234" s="4"/>
+      <c r="I234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="O234" s="4"/>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="3"/>
+      <c r="E235" s="4"/>
+      <c r="I235" s="4"/>
+      <c r="J235" s="4"/>
+      <c r="O235" s="4"/>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="3"/>
+      <c r="E236" s="4"/>
+      <c r="I236" s="4"/>
+      <c r="J236" s="4"/>
+      <c r="O236" s="4"/>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="3"/>
+      <c r="E237" s="4"/>
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="O237" s="4"/>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C238" s="3"/>
+      <c r="E238" s="4"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="O238" s="4"/>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C239" s="3"/>
+      <c r="E239" s="4"/>
+      <c r="I239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="O239" s="4"/>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="3"/>
+      <c r="E240" s="4"/>
+      <c r="I240" s="4"/>
+      <c r="J240" s="4"/>
+      <c r="O240" s="4"/>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C241" s="3"/>
+      <c r="E241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="O241" s="4"/>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C242" s="3"/>
+      <c r="E242" s="4"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="O242" s="4"/>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C243" s="3"/>
+      <c r="E243" s="4"/>
+      <c r="I243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="O243" s="4"/>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="3"/>
+      <c r="E244" s="4"/>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="O244" s="4"/>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="3"/>
+      <c r="E245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="O245" s="4"/>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="3"/>
+      <c r="E246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="O246" s="4"/>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C247" s="3"/>
+      <c r="E247" s="4"/>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="O247" s="4"/>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C248" s="3"/>
+      <c r="E248" s="4"/>
+      <c r="I248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="O248" s="4"/>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C249" s="3"/>
+      <c r="E249" s="4"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="O249" s="4"/>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C250" s="3"/>
+      <c r="E250" s="4"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="4"/>
+      <c r="O250" s="4"/>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="3"/>
+      <c r="E251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="O251" s="4"/>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="3"/>
+      <c r="E252" s="4"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="O252" s="4"/>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C253" s="3"/>
+      <c r="E253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="O253" s="4"/>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="3"/>
+      <c r="E254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="O254" s="4"/>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C255" s="3"/>
+      <c r="E255" s="4"/>
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="O255" s="4"/>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="3"/>
+      <c r="E256" s="4"/>
+      <c r="I256" s="4"/>
+      <c r="J256" s="4"/>
+      <c r="O256" s="4"/>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="3"/>
+      <c r="E257" s="4"/>
+      <c r="I257" s="4"/>
+      <c r="J257" s="4"/>
+      <c r="O257" s="4"/>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="3"/>
+      <c r="E258" s="4"/>
+      <c r="I258" s="4"/>
+      <c r="J258" s="4"/>
+      <c r="O258" s="4"/>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="3"/>
+      <c r="E259" s="4"/>
+      <c r="I259" s="4"/>
+      <c r="J259" s="4"/>
+      <c r="O259" s="4"/>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="3"/>
+      <c r="E260" s="4"/>
+      <c r="I260" s="4"/>
+      <c r="J260" s="4"/>
+      <c r="O260" s="4"/>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C261" s="3"/>
+      <c r="E261" s="4"/>
+      <c r="I261" s="4"/>
+      <c r="J261" s="4"/>
+      <c r="O261" s="4"/>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C262" s="3"/>
+      <c r="E262" s="4"/>
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="O262" s="4"/>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C263" s="3"/>
+      <c r="E263" s="4"/>
+      <c r="I263" s="4"/>
+      <c r="J263" s="4"/>
+      <c r="O263" s="4"/>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C264" s="3"/>
+      <c r="E264" s="4"/>
+      <c r="I264" s="4"/>
+      <c r="J264" s="4"/>
+      <c r="O264" s="4"/>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C265" s="3"/>
+      <c r="E265" s="4"/>
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+      <c r="O265" s="4"/>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C266" s="3"/>
+      <c r="E266" s="4"/>
+      <c r="I266" s="4"/>
+      <c r="J266" s="4"/>
+      <c r="O266" s="4"/>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="3"/>
+      <c r="E267" s="4"/>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="O267" s="4"/>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="3"/>
+      <c r="E268" s="4"/>
+      <c r="I268" s="4"/>
+      <c r="J268" s="4"/>
+      <c r="O268" s="4"/>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C269" s="3"/>
+      <c r="E269" s="4"/>
+      <c r="I269" s="4"/>
+      <c r="J269" s="4"/>
+      <c r="O269" s="4"/>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="3"/>
+      <c r="E270" s="4"/>
+      <c r="I270" s="4"/>
+      <c r="J270" s="4"/>
+      <c r="O270" s="4"/>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" s="3"/>
+      <c r="E271" s="4"/>
+      <c r="I271" s="4"/>
+      <c r="J271" s="4"/>
+      <c r="O271" s="4"/>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C272" s="3"/>
+      <c r="E272" s="4"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+      <c r="O272" s="4"/>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="3"/>
+      <c r="E273" s="4"/>
+      <c r="I273" s="4"/>
+      <c r="J273" s="4"/>
+      <c r="O273" s="4"/>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="3"/>
+      <c r="E274" s="4"/>
+      <c r="I274" s="4"/>
+      <c r="J274" s="4"/>
+      <c r="O274" s="4"/>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="3"/>
+      <c r="E275" s="4"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+      <c r="O275" s="4"/>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="3"/>
+      <c r="E276" s="4"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="4"/>
+      <c r="O276" s="4"/>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="3"/>
+      <c r="E277" s="4"/>
+      <c r="I277" s="4"/>
+      <c r="J277" s="4"/>
+      <c r="O277" s="4"/>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="3"/>
+      <c r="E278" s="4"/>
+      <c r="I278" s="4"/>
+      <c r="J278" s="4"/>
+      <c r="O278" s="4"/>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C279" s="3"/>
+      <c r="E279" s="4"/>
+      <c r="I279" s="4"/>
+      <c r="J279" s="4"/>
+      <c r="O279" s="4"/>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C280" s="3"/>
+      <c r="E280" s="4"/>
+      <c r="I280" s="4"/>
+      <c r="J280" s="4"/>
+      <c r="O280" s="4"/>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C281" s="3"/>
+      <c r="E281" s="4"/>
+      <c r="I281" s="4"/>
+      <c r="J281" s="4"/>
+      <c r="O281" s="4"/>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="3"/>
+      <c r="E282" s="4"/>
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="O282" s="4"/>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C283" s="3"/>
+      <c r="E283" s="4"/>
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="O283" s="4"/>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C284" s="3"/>
+      <c r="E284" s="4"/>
+      <c r="I284" s="4"/>
+      <c r="J284" s="4"/>
+      <c r="O284" s="4"/>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C285" s="3"/>
+      <c r="E285" s="4"/>
+      <c r="I285" s="4"/>
+      <c r="J285" s="4"/>
+      <c r="O285" s="4"/>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C286" s="3"/>
+      <c r="E286" s="4"/>
+      <c r="I286" s="4"/>
+      <c r="J286" s="4"/>
+      <c r="O286" s="4"/>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C287" s="3"/>
+      <c r="E287" s="4"/>
+      <c r="I287" s="4"/>
+      <c r="J287" s="4"/>
+      <c r="O287" s="4"/>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C288" s="3"/>
+      <c r="E288" s="4"/>
+      <c r="I288" s="4"/>
+      <c r="J288" s="4"/>
+      <c r="O288" s="4"/>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C289" s="3"/>
+      <c r="E289" s="4"/>
+      <c r="I289" s="4"/>
+      <c r="J289" s="4"/>
+      <c r="O289" s="4"/>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="3"/>
+      <c r="E290" s="4"/>
+      <c r="I290" s="4"/>
+      <c r="J290" s="4"/>
+      <c r="O290" s="4"/>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C291" s="3"/>
+      <c r="E291" s="4"/>
+      <c r="I291" s="4"/>
+      <c r="J291" s="4"/>
+      <c r="O291" s="4"/>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C292" s="3"/>
+      <c r="E292" s="4"/>
+      <c r="I292" s="4"/>
+      <c r="J292" s="4"/>
+      <c r="O292" s="4"/>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C293" s="3"/>
+      <c r="E293" s="4"/>
+      <c r="I293" s="4"/>
+      <c r="J293" s="4"/>
+      <c r="O293" s="4"/>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="3"/>
+      <c r="E294" s="4"/>
+      <c r="I294" s="4"/>
+      <c r="J294" s="4"/>
+      <c r="O294" s="4"/>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="3"/>
+      <c r="E295" s="4"/>
+      <c r="I295" s="4"/>
+      <c r="J295" s="4"/>
+      <c r="O295" s="4"/>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C296" s="3"/>
+      <c r="E296" s="4"/>
+      <c r="I296" s="4"/>
+      <c r="J296" s="4"/>
+      <c r="O296" s="4"/>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C297" s="3"/>
+      <c r="E297" s="4"/>
+      <c r="I297" s="4"/>
+      <c r="J297" s="4"/>
+      <c r="O297" s="4"/>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C298" s="3"/>
+      <c r="E298" s="4"/>
+      <c r="I298" s="4"/>
+      <c r="J298" s="4"/>
+      <c r="O298" s="4"/>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="3"/>
+      <c r="E299" s="4"/>
+      <c r="I299" s="4"/>
+      <c r="J299" s="4"/>
+      <c r="O299" s="4"/>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C300" s="3"/>
+      <c r="E300" s="4"/>
+      <c r="I300" s="4"/>
+      <c r="J300" s="4"/>
+      <c r="O300" s="4"/>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="3"/>
+      <c r="E301" s="4"/>
+      <c r="I301" s="4"/>
+      <c r="J301" s="4"/>
+      <c r="O301" s="4"/>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="3"/>
+      <c r="E302" s="4"/>
+      <c r="I302" s="4"/>
+      <c r="J302" s="4"/>
+      <c r="O302" s="4"/>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="3"/>
+      <c r="E303" s="4"/>
+      <c r="I303" s="4"/>
+      <c r="J303" s="4"/>
+      <c r="O303" s="4"/>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="3"/>
+      <c r="E304" s="4"/>
+      <c r="I304" s="4"/>
+      <c r="J304" s="4"/>
+      <c r="O304" s="4"/>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C305" s="3"/>
+      <c r="E305" s="4"/>
+      <c r="I305" s="4"/>
+      <c r="J305" s="4"/>
+      <c r="O305" s="4"/>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="3"/>
+      <c r="E306" s="4"/>
+      <c r="I306" s="4"/>
+      <c r="J306" s="4"/>
+      <c r="O306" s="4"/>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="3"/>
+      <c r="E307" s="4"/>
+      <c r="I307" s="4"/>
+      <c r="J307" s="4"/>
+      <c r="O307" s="4"/>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="3"/>
+      <c r="E308" s="4"/>
+      <c r="I308" s="4"/>
+      <c r="J308" s="4"/>
+      <c r="O308" s="4"/>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="3"/>
+      <c r="E309" s="4"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="4"/>
+      <c r="O309" s="4"/>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C310" s="3"/>
+      <c r="E310" s="4"/>
+      <c r="I310" s="4"/>
+      <c r="J310" s="4"/>
+      <c r="O310" s="4"/>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C311" s="3"/>
+      <c r="E311" s="4"/>
+      <c r="I311" s="4"/>
+      <c r="J311" s="4"/>
+      <c r="O311" s="4"/>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C312" s="3"/>
+      <c r="E312" s="4"/>
+      <c r="I312" s="4"/>
+      <c r="J312" s="4"/>
+      <c r="O312" s="4"/>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="3"/>
+      <c r="E313" s="4"/>
+      <c r="I313" s="4"/>
+      <c r="J313" s="4"/>
+      <c r="O313" s="4"/>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C314" s="3"/>
+      <c r="E314" s="4"/>
+      <c r="I314" s="4"/>
+      <c r="J314" s="4"/>
+      <c r="O314" s="4"/>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C315" s="3"/>
+      <c r="E315" s="4"/>
+      <c r="I315" s="4"/>
+      <c r="J315" s="4"/>
+      <c r="O315" s="4"/>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C316" s="3"/>
+      <c r="E316" s="4"/>
+      <c r="I316" s="4"/>
+      <c r="J316" s="4"/>
+      <c r="O316" s="4"/>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C317" s="3"/>
+      <c r="E317" s="4"/>
+      <c r="I317" s="4"/>
+      <c r="J317" s="4"/>
+      <c r="O317" s="4"/>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C318" s="3"/>
+      <c r="E318" s="4"/>
+      <c r="I318" s="4"/>
+      <c r="J318" s="4"/>
+      <c r="O318" s="4"/>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C319" s="3"/>
+      <c r="E319" s="4"/>
+      <c r="I319" s="4"/>
+      <c r="J319" s="4"/>
+      <c r="O319" s="4"/>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C320" s="3"/>
+      <c r="E320" s="4"/>
+      <c r="I320" s="4"/>
+      <c r="J320" s="4"/>
+      <c r="O320" s="4"/>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C321" s="3"/>
+      <c r="E321" s="4"/>
+      <c r="I321" s="4"/>
+      <c r="J321" s="4"/>
+      <c r="O321" s="4"/>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C322" s="3"/>
+      <c r="E322" s="4"/>
+      <c r="I322" s="4"/>
+      <c r="J322" s="4"/>
+      <c r="O322" s="4"/>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C323" s="3"/>
+      <c r="E323" s="4"/>
+      <c r="I323" s="4"/>
+      <c r="J323" s="4"/>
+      <c r="O323" s="4"/>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C324" s="3"/>
+      <c r="E324" s="4"/>
+      <c r="I324" s="4"/>
+      <c r="J324" s="4"/>
+      <c r="O324" s="4"/>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C325" s="3"/>
+      <c r="E325" s="4"/>
+      <c r="I325" s="4"/>
+      <c r="J325" s="4"/>
+      <c r="O325" s="4"/>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C326" s="3"/>
+      <c r="E326" s="4"/>
+      <c r="I326" s="4"/>
+      <c r="J326" s="4"/>
+      <c r="O326" s="4"/>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C327" s="3"/>
+      <c r="E327" s="4"/>
+      <c r="I327" s="4"/>
+      <c r="J327" s="4"/>
+      <c r="O327" s="4"/>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C328" s="3"/>
+      <c r="E328" s="4"/>
+      <c r="I328" s="4"/>
+      <c r="J328" s="4"/>
+      <c r="O328" s="4"/>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C329" s="3"/>
+      <c r="E329" s="4"/>
+      <c r="I329" s="4"/>
+      <c r="J329" s="4"/>
+      <c r="O329" s="4"/>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C330" s="3"/>
+      <c r="E330" s="4"/>
+      <c r="I330" s="4"/>
+      <c r="J330" s="4"/>
+      <c r="O330" s="4"/>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C331" s="3"/>
+      <c r="E331" s="4"/>
+      <c r="I331" s="4"/>
+      <c r="J331" s="4"/>
+      <c r="O331" s="4"/>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C332" s="3"/>
+      <c r="E332" s="4"/>
+      <c r="I332" s="4"/>
+      <c r="J332" s="4"/>
+      <c r="O332" s="4"/>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C333" s="3"/>
+      <c r="E333" s="4"/>
+      <c r="I333" s="4"/>
+      <c r="J333" s="4"/>
+      <c r="O333" s="4"/>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C334" s="3"/>
+      <c r="E334" s="4"/>
+      <c r="I334" s="4"/>
+      <c r="J334" s="4"/>
+      <c r="O334" s="4"/>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C335" s="3"/>
+      <c r="E335" s="4"/>
+      <c r="I335" s="4"/>
+      <c r="J335" s="4"/>
+      <c r="O335" s="4"/>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C336" s="3"/>
+      <c r="E336" s="4"/>
+      <c r="I336" s="4"/>
+      <c r="J336" s="4"/>
+      <c r="O336" s="4"/>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C337" s="3"/>
+      <c r="E337" s="4"/>
+      <c r="I337" s="4"/>
+      <c r="J337" s="4"/>
+      <c r="O337" s="4"/>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C338" s="3"/>
+      <c r="E338" s="4"/>
+      <c r="I338" s="4"/>
+      <c r="J338" s="4"/>
+      <c r="O338" s="4"/>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C339" s="3"/>
+      <c r="E339" s="4"/>
+      <c r="I339" s="4"/>
+      <c r="J339" s="4"/>
+      <c r="O339" s="4"/>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C340" s="3"/>
+      <c r="E340" s="4"/>
+      <c r="I340" s="4"/>
+      <c r="J340" s="4"/>
+      <c r="O340" s="4"/>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C341" s="3"/>
+      <c r="E341" s="4"/>
+      <c r="I341" s="4"/>
+      <c r="J341" s="4"/>
+      <c r="O341" s="4"/>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C342" s="3"/>
+      <c r="E342" s="4"/>
+      <c r="I342" s="4"/>
+      <c r="J342" s="4"/>
+      <c r="O342" s="4"/>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C343" s="3"/>
+      <c r="E343" s="4"/>
+      <c r="I343" s="4"/>
+      <c r="J343" s="4"/>
+      <c r="O343" s="4"/>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C344" s="3"/>
+      <c r="E344" s="4"/>
+      <c r="I344" s="4"/>
+      <c r="J344" s="4"/>
+      <c r="O344" s="4"/>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C345" s="3"/>
+      <c r="E345" s="4"/>
+      <c r="I345" s="4"/>
+      <c r="J345" s="4"/>
+      <c r="O345" s="4"/>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C346" s="3"/>
+      <c r="E346" s="4"/>
+      <c r="I346" s="4"/>
+      <c r="J346" s="4"/>
+      <c r="O346" s="4"/>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C347" s="3"/>
+      <c r="E347" s="4"/>
+      <c r="I347" s="4"/>
+      <c r="J347" s="4"/>
+      <c r="O347" s="4"/>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C348" s="3"/>
+      <c r="E348" s="4"/>
+      <c r="I348" s="4"/>
+      <c r="J348" s="4"/>
+      <c r="O348" s="4"/>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C349" s="3"/>
+      <c r="E349" s="4"/>
+      <c r="I349" s="4"/>
+      <c r="J349" s="4"/>
+      <c r="O349" s="4"/>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C350" s="3"/>
+      <c r="E350" s="4"/>
+      <c r="I350" s="4"/>
+      <c r="J350" s="4"/>
+      <c r="O350" s="4"/>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C351" s="3"/>
+      <c r="E351" s="4"/>
+      <c r="I351" s="4"/>
+      <c r="J351" s="4"/>
+      <c r="O351" s="4"/>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C352" s="3"/>
+      <c r="E352" s="4"/>
+      <c r="I352" s="4"/>
+      <c r="J352" s="4"/>
+      <c r="O352" s="4"/>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C353" s="3"/>
+      <c r="E353" s="4"/>
+      <c r="I353" s="4"/>
+      <c r="J353" s="4"/>
+      <c r="O353" s="4"/>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C354" s="3"/>
+      <c r="E354" s="4"/>
+      <c r="I354" s="4"/>
+      <c r="J354" s="4"/>
+      <c r="O354" s="4"/>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C355" s="3"/>
+      <c r="E355" s="4"/>
+      <c r="I355" s="4"/>
+      <c r="J355" s="4"/>
+      <c r="O355" s="4"/>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C356" s="3"/>
+      <c r="E356" s="4"/>
+      <c r="I356" s="4"/>
+      <c r="J356" s="4"/>
+      <c r="O356" s="4"/>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C357" s="3"/>
+      <c r="E357" s="4"/>
+      <c r="I357" s="4"/>
+      <c r="J357" s="4"/>
+      <c r="O357" s="4"/>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="3"/>
+      <c r="E358" s="4"/>
+      <c r="I358" s="4"/>
+      <c r="J358" s="4"/>
+      <c r="O358" s="4"/>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="3"/>
+      <c r="E359" s="4"/>
+      <c r="I359" s="4"/>
+      <c r="J359" s="4"/>
+      <c r="O359" s="4"/>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C360" s="3"/>
+      <c r="E360" s="4"/>
+      <c r="I360" s="4"/>
+      <c r="J360" s="4"/>
+      <c r="O360" s="4"/>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C361" s="3"/>
+      <c r="E361" s="4"/>
+      <c r="I361" s="4"/>
+      <c r="J361" s="4"/>
+      <c r="O361" s="4"/>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C362" s="3"/>
+      <c r="E362" s="4"/>
+      <c r="I362" s="4"/>
+      <c r="J362" s="4"/>
+      <c r="O362" s="4"/>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C363" s="3"/>
+      <c r="E363" s="4"/>
+      <c r="I363" s="4"/>
+      <c r="J363" s="4"/>
+      <c r="O363" s="4"/>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C364" s="3"/>
+      <c r="E364" s="4"/>
+      <c r="I364" s="4"/>
+      <c r="J364" s="4"/>
+      <c r="O364" s="4"/>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C365" s="3"/>
+      <c r="E365" s="4"/>
+      <c r="I365" s="4"/>
+      <c r="J365" s="4"/>
+      <c r="O365" s="4"/>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C366" s="3"/>
+      <c r="E366" s="4"/>
+      <c r="I366" s="4"/>
+      <c r="J366" s="4"/>
+      <c r="O366" s="4"/>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C367" s="3"/>
+      <c r="E367" s="4"/>
+      <c r="I367" s="4"/>
+      <c r="J367" s="4"/>
+      <c r="O367" s="4"/>
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C368" s="3"/>
+      <c r="E368" s="4"/>
+      <c r="I368" s="4"/>
+      <c r="J368" s="4"/>
+      <c r="O368" s="4"/>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C369" s="3"/>
+      <c r="E369" s="4"/>
+      <c r="I369" s="4"/>
+      <c r="J369" s="4"/>
+      <c r="O369" s="4"/>
+    </row>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="3"/>
+      <c r="E370" s="4"/>
+      <c r="I370" s="4"/>
+      <c r="J370" s="4"/>
+      <c r="O370" s="4"/>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C371" s="3"/>
+      <c r="E371" s="4"/>
+      <c r="I371" s="4"/>
+      <c r="J371" s="4"/>
+      <c r="O371" s="4"/>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C372" s="3"/>
+      <c r="E372" s="4"/>
+      <c r="I372" s="4"/>
+      <c r="J372" s="4"/>
+      <c r="O372" s="4"/>
+    </row>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C373" s="3"/>
+      <c r="E373" s="4"/>
+      <c r="I373" s="4"/>
+      <c r="J373" s="4"/>
+      <c r="O373" s="4"/>
+    </row>
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C374" s="3"/>
+      <c r="E374" s="4"/>
+      <c r="I374" s="4"/>
+      <c r="J374" s="4"/>
+      <c r="O374" s="4"/>
+    </row>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C375" s="3"/>
+      <c r="E375" s="4"/>
+      <c r="I375" s="4"/>
+      <c r="J375" s="4"/>
+      <c r="O375" s="4"/>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C376" s="3"/>
+      <c r="E376" s="4"/>
+      <c r="I376" s="4"/>
+      <c r="J376" s="4"/>
+      <c r="O376" s="4"/>
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C377" s="3"/>
+      <c r="E377" s="4"/>
+      <c r="I377" s="4"/>
+      <c r="J377" s="4"/>
+      <c r="O377" s="4"/>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C378" s="3"/>
+      <c r="E378" s="4"/>
+      <c r="I378" s="4"/>
+      <c r="J378" s="4"/>
+      <c r="O378" s="4"/>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C379" s="3"/>
+      <c r="E379" s="4"/>
+      <c r="I379" s="4"/>
+      <c r="J379" s="4"/>
+      <c r="O379" s="4"/>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C380" s="3"/>
+      <c r="E380" s="4"/>
+      <c r="I380" s="4"/>
+      <c r="J380" s="4"/>
+      <c r="O380" s="4"/>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C381" s="3"/>
+      <c r="E381" s="4"/>
+      <c r="I381" s="4"/>
+      <c r="J381" s="4"/>
+      <c r="O381" s="4"/>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C382" s="3"/>
+      <c r="E382" s="4"/>
+      <c r="I382" s="4"/>
+      <c r="J382" s="4"/>
+      <c r="O382" s="4"/>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C383" s="3"/>
+      <c r="E383" s="4"/>
+      <c r="I383" s="4"/>
+      <c r="J383" s="4"/>
+      <c r="O383" s="4"/>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C384" s="3"/>
+      <c r="E384" s="4"/>
+      <c r="I384" s="4"/>
+      <c r="J384" s="4"/>
+      <c r="O384" s="4"/>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C385" s="3"/>
+      <c r="E385" s="4"/>
+      <c r="I385" s="4"/>
+      <c r="J385" s="4"/>
+      <c r="O385" s="4"/>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C386" s="3"/>
+      <c r="E386" s="4"/>
+      <c r="I386" s="4"/>
+      <c r="J386" s="4"/>
+      <c r="O386" s="4"/>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C387" s="3"/>
+      <c r="E387" s="4"/>
+      <c r="I387" s="4"/>
+      <c r="J387" s="4"/>
+      <c r="O387" s="4"/>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C388" s="3"/>
+      <c r="E388" s="4"/>
+      <c r="I388" s="4"/>
+      <c r="J388" s="4"/>
+      <c r="O388" s="4"/>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C389" s="3"/>
+      <c r="E389" s="4"/>
+      <c r="I389" s="4"/>
+      <c r="J389" s="4"/>
+      <c r="O389" s="4"/>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C390" s="3"/>
+      <c r="E390" s="4"/>
+      <c r="I390" s="4"/>
+      <c r="J390" s="4"/>
+      <c r="O390" s="4"/>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C391" s="3"/>
+      <c r="E391" s="4"/>
+      <c r="I391" s="4"/>
+      <c r="J391" s="4"/>
+      <c r="O391" s="4"/>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C392" s="3"/>
+      <c r="E392" s="4"/>
+      <c r="I392" s="4"/>
+      <c r="J392" s="4"/>
+      <c r="O392" s="4"/>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C393" s="3"/>
+      <c r="E393" s="4"/>
+      <c r="I393" s="4"/>
+      <c r="J393" s="4"/>
+      <c r="O393" s="4"/>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C394" s="3"/>
+      <c r="E394" s="4"/>
+      <c r="I394" s="4"/>
+      <c r="J394" s="4"/>
+      <c r="O394" s="4"/>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C395" s="3"/>
+      <c r="E395" s="4"/>
+      <c r="I395" s="4"/>
+      <c r="J395" s="4"/>
+      <c r="O395" s="4"/>
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C396" s="3"/>
+      <c r="E396" s="4"/>
+      <c r="I396" s="4"/>
+      <c r="J396" s="4"/>
+      <c r="O396" s="4"/>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C397" s="3"/>
+      <c r="E397" s="4"/>
+      <c r="I397" s="4"/>
+      <c r="J397" s="4"/>
+      <c r="O397" s="4"/>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C398" s="3"/>
+      <c r="E398" s="4"/>
+      <c r="I398" s="4"/>
+      <c r="J398" s="4"/>
+      <c r="O398" s="4"/>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C399" s="3"/>
+      <c r="E399" s="4"/>
+      <c r="I399" s="4"/>
+      <c r="J399" s="4"/>
+      <c r="O399" s="4"/>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C400" s="3"/>
+      <c r="E400" s="4"/>
+      <c r="I400" s="4"/>
+      <c r="J400" s="4"/>
+      <c r="O400" s="4"/>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C401" s="3"/>
+      <c r="E401" s="4"/>
+      <c r="I401" s="4"/>
+      <c r="J401" s="4"/>
+      <c r="O401" s="4"/>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C402" s="3"/>
+      <c r="E402" s="4"/>
+      <c r="I402" s="4"/>
+      <c r="J402" s="4"/>
+      <c r="O402" s="4"/>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C403" s="3"/>
+      <c r="E403" s="4"/>
+      <c r="I403" s="4"/>
+      <c r="J403" s="4"/>
+      <c r="O403" s="4"/>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C404" s="3"/>
+      <c r="E404" s="4"/>
+      <c r="I404" s="4"/>
+      <c r="J404" s="4"/>
+      <c r="O404" s="4"/>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C405" s="3"/>
+      <c r="E405" s="4"/>
+      <c r="I405" s="4"/>
+      <c r="J405" s="4"/>
+      <c r="O405" s="4"/>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C406" s="3"/>
+      <c r="E406" s="4"/>
+      <c r="I406" s="4"/>
+      <c r="J406" s="4"/>
+      <c r="O406" s="4"/>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C407" s="3"/>
+      <c r="E407" s="4"/>
+      <c r="I407" s="4"/>
+      <c r="J407" s="4"/>
+      <c r="O407" s="4"/>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C408" s="3"/>
+      <c r="E408" s="4"/>
+      <c r="I408" s="4"/>
+      <c r="J408" s="4"/>
+      <c r="O408" s="4"/>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C409" s="3"/>
+      <c r="E409" s="4"/>
+      <c r="I409" s="4"/>
+      <c r="J409" s="4"/>
+      <c r="O409" s="4"/>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C410" s="3"/>
+      <c r="E410" s="4"/>
+      <c r="I410" s="4"/>
+      <c r="J410" s="4"/>
+      <c r="O410" s="4"/>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C411" s="3"/>
+      <c r="E411" s="4"/>
+      <c r="I411" s="4"/>
+      <c r="J411" s="4"/>
+      <c r="O411" s="4"/>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C412" s="3"/>
+      <c r="E412" s="4"/>
+      <c r="I412" s="4"/>
+      <c r="J412" s="4"/>
+      <c r="O412" s="4"/>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C413" s="3"/>
+      <c r="E413" s="4"/>
+      <c r="I413" s="4"/>
+      <c r="J413" s="4"/>
+      <c r="O413" s="4"/>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C414" s="3"/>
+      <c r="E414" s="4"/>
+      <c r="I414" s="4"/>
+      <c r="J414" s="4"/>
+      <c r="O414" s="4"/>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C415" s="3"/>
+      <c r="E415" s="4"/>
+      <c r="I415" s="4"/>
+      <c r="J415" s="4"/>
+      <c r="O415" s="4"/>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C416" s="3"/>
+      <c r="E416" s="4"/>
+      <c r="I416" s="4"/>
+      <c r="J416" s="4"/>
+      <c r="O416" s="4"/>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C417" s="3"/>
+      <c r="E417" s="4"/>
+      <c r="I417" s="4"/>
+      <c r="J417" s="4"/>
+      <c r="O417" s="4"/>
+    </row>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C418" s="3"/>
+      <c r="E418" s="4"/>
+      <c r="I418" s="4"/>
+      <c r="J418" s="4"/>
+      <c r="O418" s="4"/>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C419" s="3"/>
+      <c r="E419" s="4"/>
+      <c r="I419" s="4"/>
+      <c r="J419" s="4"/>
+      <c r="O419" s="4"/>
+    </row>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C420" s="3"/>
+      <c r="E420" s="4"/>
+      <c r="I420" s="4"/>
+      <c r="J420" s="4"/>
+      <c r="O420" s="4"/>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C421" s="3"/>
+      <c r="E421" s="4"/>
+      <c r="I421" s="4"/>
+      <c r="J421" s="4"/>
+      <c r="O421" s="4"/>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C422" s="3"/>
+      <c r="E422" s="4"/>
+      <c r="I422" s="4"/>
+      <c r="J422" s="4"/>
+      <c r="O422" s="4"/>
+    </row>
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C423" s="3"/>
+      <c r="E423" s="4"/>
+      <c r="I423" s="4"/>
+      <c r="J423" s="4"/>
+      <c r="O423" s="4"/>
+    </row>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C424" s="3"/>
+      <c r="E424" s="4"/>
+      <c r="I424" s="4"/>
+      <c r="J424" s="4"/>
+      <c r="O424" s="4"/>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C425" s="3"/>
+      <c r="E425" s="4"/>
+      <c r="I425" s="4"/>
+      <c r="J425" s="4"/>
+      <c r="O425" s="4"/>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C426" s="3"/>
+      <c r="E426" s="4"/>
+      <c r="I426" s="4"/>
+      <c r="J426" s="4"/>
+      <c r="O426" s="4"/>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C427" s="3"/>
+      <c r="E427" s="4"/>
+      <c r="I427" s="4"/>
+      <c r="J427" s="4"/>
+      <c r="O427" s="4"/>
+    </row>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C428" s="3"/>
+      <c r="E428" s="4"/>
+      <c r="I428" s="4"/>
+      <c r="J428" s="4"/>
+      <c r="O428" s="4"/>
+    </row>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C429" s="3"/>
+      <c r="E429" s="4"/>
+      <c r="I429" s="4"/>
+      <c r="J429" s="4"/>
+      <c r="O429" s="4"/>
+    </row>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C430" s="3"/>
+      <c r="E430" s="4"/>
+      <c r="I430" s="4"/>
+      <c r="J430" s="4"/>
+      <c r="O430" s="4"/>
+    </row>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C431" s="3"/>
+      <c r="E431" s="4"/>
+      <c r="I431" s="4"/>
+      <c r="J431" s="4"/>
+      <c r="O431" s="4"/>
+    </row>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C432" s="3"/>
+      <c r="E432" s="4"/>
+      <c r="I432" s="4"/>
+      <c r="J432" s="4"/>
+      <c r="O432" s="4"/>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C433" s="3"/>
+      <c r="E433" s="4"/>
+      <c r="I433" s="4"/>
+      <c r="J433" s="4"/>
+      <c r="O433" s="4"/>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C434" s="3"/>
+      <c r="E434" s="4"/>
+      <c r="I434" s="4"/>
+      <c r="J434" s="4"/>
+      <c r="O434" s="4"/>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C435" s="3"/>
+      <c r="E435" s="4"/>
+      <c r="I435" s="4"/>
+      <c r="J435" s="4"/>
+      <c r="O435" s="4"/>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="3"/>
+      <c r="E436" s="4"/>
+      <c r="I436" s="4"/>
+      <c r="J436" s="4"/>
+      <c r="O436" s="4"/>
+    </row>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="3"/>
+      <c r="E437" s="4"/>
+      <c r="I437" s="4"/>
+      <c r="J437" s="4"/>
+      <c r="O437" s="4"/>
+    </row>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="3"/>
+      <c r="E438" s="4"/>
+      <c r="I438" s="4"/>
+      <c r="J438" s="4"/>
+      <c r="O438" s="4"/>
+    </row>
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C439" s="3"/>
+      <c r="E439" s="4"/>
+      <c r="I439" s="4"/>
+      <c r="J439" s="4"/>
+      <c r="O439" s="4"/>
+    </row>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C440" s="3"/>
+      <c r="E440" s="4"/>
+      <c r="I440" s="4"/>
+      <c r="J440" s="4"/>
+      <c r="O440" s="4"/>
+    </row>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="3"/>
+      <c r="E441" s="4"/>
+      <c r="I441" s="4"/>
+      <c r="J441" s="4"/>
+      <c r="O441" s="4"/>
+    </row>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C442" s="3"/>
+      <c r="E442" s="4"/>
+      <c r="I442" s="4"/>
+      <c r="J442" s="4"/>
+      <c r="O442" s="4"/>
+    </row>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C443" s="3"/>
+      <c r="E443" s="4"/>
+      <c r="I443" s="4"/>
+      <c r="J443" s="4"/>
+      <c r="O443" s="4"/>
+    </row>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C444" s="3"/>
+      <c r="E444" s="4"/>
+      <c r="I444" s="4"/>
+      <c r="J444" s="4"/>
+      <c r="O444" s="4"/>
+    </row>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C445" s="3"/>
+      <c r="E445" s="4"/>
+      <c r="I445" s="4"/>
+      <c r="J445" s="4"/>
+      <c r="O445" s="4"/>
+    </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C446" s="3"/>
+      <c r="E446" s="4"/>
+      <c r="I446" s="4"/>
+      <c r="J446" s="4"/>
+      <c r="O446" s="4"/>
+    </row>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C447" s="3"/>
+      <c r="E447" s="4"/>
+      <c r="I447" s="4"/>
+      <c r="J447" s="4"/>
+      <c r="O447" s="4"/>
+    </row>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C448" s="3"/>
+      <c r="E448" s="4"/>
+      <c r="I448" s="4"/>
+      <c r="J448" s="4"/>
+      <c r="O448" s="4"/>
+    </row>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C449" s="3"/>
+      <c r="E449" s="4"/>
+      <c r="I449" s="4"/>
+      <c r="J449" s="4"/>
+      <c r="O449" s="4"/>
+    </row>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C450" s="3"/>
+      <c r="E450" s="4"/>
+      <c r="I450" s="4"/>
+      <c r="J450" s="4"/>
+      <c r="O450" s="4"/>
+    </row>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C451" s="3"/>
+      <c r="E451" s="4"/>
+      <c r="I451" s="4"/>
+      <c r="J451" s="4"/>
+      <c r="O451" s="4"/>
+    </row>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C452" s="3"/>
+      <c r="E452" s="4"/>
+      <c r="I452" s="4"/>
+      <c r="J452" s="4"/>
+      <c r="O452" s="4"/>
+    </row>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C453" s="3"/>
+      <c r="E453" s="4"/>
+      <c r="I453" s="4"/>
+      <c r="J453" s="4"/>
+      <c r="O453" s="4"/>
+    </row>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C454" s="3"/>
+      <c r="E454" s="4"/>
+      <c r="I454" s="4"/>
+      <c r="J454" s="4"/>
+      <c r="O454" s="4"/>
+    </row>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C455" s="3"/>
+      <c r="E455" s="4"/>
+      <c r="I455" s="4"/>
+      <c r="J455" s="4"/>
+      <c r="O455" s="4"/>
+    </row>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C456" s="3"/>
+      <c r="E456" s="4"/>
+      <c r="I456" s="4"/>
+      <c r="J456" s="4"/>
+      <c r="O456" s="4"/>
+    </row>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C457" s="3"/>
+      <c r="E457" s="4"/>
+      <c r="I457" s="4"/>
+      <c r="J457" s="4"/>
+      <c r="O457" s="4"/>
+    </row>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C458" s="3"/>
+      <c r="E458" s="4"/>
+      <c r="I458" s="4"/>
+      <c r="J458" s="4"/>
+      <c r="O458" s="4"/>
+    </row>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C459" s="3"/>
+      <c r="E459" s="4"/>
+      <c r="I459" s="4"/>
+      <c r="J459" s="4"/>
+      <c r="O459" s="4"/>
+    </row>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C460" s="3"/>
+      <c r="E460" s="4"/>
+      <c r="I460" s="4"/>
+      <c r="J460" s="4"/>
+      <c r="O460" s="4"/>
+    </row>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C461" s="3"/>
+      <c r="E461" s="4"/>
+      <c r="I461" s="4"/>
+      <c r="J461" s="4"/>
+      <c r="O461" s="4"/>
+    </row>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C462" s="3"/>
+      <c r="E462" s="4"/>
+      <c r="I462" s="4"/>
+      <c r="J462" s="4"/>
+      <c r="O462" s="4"/>
+    </row>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C463" s="3"/>
+      <c r="E463" s="4"/>
+      <c r="I463" s="4"/>
+      <c r="J463" s="4"/>
+      <c r="O463" s="4"/>
+    </row>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C464" s="3"/>
+      <c r="E464" s="4"/>
+      <c r="I464" s="4"/>
+      <c r="J464" s="4"/>
+      <c r="O464" s="4"/>
+    </row>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C465" s="3"/>
+      <c r="E465" s="4"/>
+      <c r="I465" s="4"/>
+      <c r="J465" s="4"/>
+      <c r="O465" s="4"/>
+    </row>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C466" s="3"/>
+      <c r="E466" s="4"/>
+      <c r="I466" s="4"/>
+      <c r="J466" s="4"/>
+      <c r="O466" s="4"/>
+    </row>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C467" s="3"/>
+      <c r="E467" s="4"/>
+      <c r="I467" s="4"/>
+      <c r="J467" s="4"/>
+      <c r="O467" s="4"/>
+    </row>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C468" s="3"/>
+      <c r="E468" s="4"/>
+      <c r="I468" s="4"/>
+      <c r="J468" s="4"/>
+      <c r="O468" s="4"/>
+    </row>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C469" s="3"/>
+      <c r="E469" s="4"/>
+      <c r="I469" s="4"/>
+      <c r="J469" s="4"/>
+      <c r="O469" s="4"/>
+    </row>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="3"/>
+      <c r="E470" s="4"/>
+      <c r="I470" s="4"/>
+      <c r="J470" s="4"/>
+      <c r="O470" s="4"/>
+    </row>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C471" s="3"/>
+      <c r="E471" s="4"/>
+      <c r="I471" s="4"/>
+      <c r="J471" s="4"/>
+      <c r="O471" s="4"/>
+    </row>
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="3"/>
+      <c r="E472" s="4"/>
+      <c r="I472" s="4"/>
+      <c r="J472" s="4"/>
+      <c r="O472" s="4"/>
+    </row>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C473" s="3"/>
+      <c r="E473" s="4"/>
+      <c r="I473" s="4"/>
+      <c r="J473" s="4"/>
+      <c r="O473" s="4"/>
+    </row>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C474" s="3"/>
+      <c r="E474" s="4"/>
+      <c r="I474" s="4"/>
+      <c r="J474" s="4"/>
+      <c r="O474" s="4"/>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C475" s="3"/>
+      <c r="E475" s="4"/>
+      <c r="I475" s="4"/>
+      <c r="J475" s="4"/>
+      <c r="O475" s="4"/>
+    </row>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="3"/>
+      <c r="E476" s="4"/>
+      <c r="I476" s="4"/>
+      <c r="J476" s="4"/>
+      <c r="O476" s="4"/>
+    </row>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="3"/>
+      <c r="E477" s="4"/>
+      <c r="I477" s="4"/>
+      <c r="J477" s="4"/>
+      <c r="O477" s="4"/>
+    </row>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="3"/>
+      <c r="E478" s="4"/>
+      <c r="I478" s="4"/>
+      <c r="J478" s="4"/>
+      <c r="O478" s="4"/>
+    </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C479" s="3"/>
+      <c r="E479" s="4"/>
+      <c r="I479" s="4"/>
+      <c r="J479" s="4"/>
+      <c r="O479" s="4"/>
+    </row>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C480" s="3"/>
+      <c r="E480" s="4"/>
+      <c r="I480" s="4"/>
+      <c r="J480" s="4"/>
+      <c r="O480" s="4"/>
+    </row>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C481" s="3"/>
+      <c r="E481" s="4"/>
+      <c r="I481" s="4"/>
+      <c r="J481" s="4"/>
+      <c r="O481" s="4"/>
+    </row>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C482" s="3"/>
+      <c r="E482" s="4"/>
+      <c r="I482" s="4"/>
+      <c r="J482" s="4"/>
+      <c r="O482" s="4"/>
+    </row>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C483" s="3"/>
+      <c r="E483" s="4"/>
+      <c r="I483" s="4"/>
+      <c r="J483" s="4"/>
+      <c r="O483" s="4"/>
+    </row>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C484" s="3"/>
+      <c r="E484" s="4"/>
+      <c r="I484" s="4"/>
+      <c r="J484" s="4"/>
+      <c r="O484" s="4"/>
+    </row>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C485" s="3"/>
+      <c r="E485" s="4"/>
+      <c r="I485" s="4"/>
+      <c r="J485" s="4"/>
+      <c r="O485" s="4"/>
+    </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C486" s="3"/>
+      <c r="E486" s="4"/>
+      <c r="I486" s="4"/>
+      <c r="J486" s="4"/>
+      <c r="O486" s="4"/>
+    </row>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C487" s="3"/>
+      <c r="E487" s="4"/>
+      <c r="I487" s="4"/>
+      <c r="J487" s="4"/>
+      <c r="O487" s="4"/>
+    </row>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C488" s="3"/>
+      <c r="E488" s="4"/>
+      <c r="I488" s="4"/>
+      <c r="J488" s="4"/>
+      <c r="O488" s="4"/>
+    </row>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C489" s="3"/>
+      <c r="E489" s="4"/>
+      <c r="I489" s="4"/>
+      <c r="J489" s="4"/>
+      <c r="O489" s="4"/>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C490" s="3"/>
+      <c r="E490" s="4"/>
+      <c r="I490" s="4"/>
+      <c r="J490" s="4"/>
+      <c r="O490" s="4"/>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C491" s="3"/>
+      <c r="E491" s="4"/>
+      <c r="I491" s="4"/>
+      <c r="J491" s="4"/>
+      <c r="O491" s="4"/>
+    </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C492" s="3"/>
+      <c r="E492" s="4"/>
+      <c r="I492" s="4"/>
+      <c r="J492" s="4"/>
+      <c r="O492" s="4"/>
+    </row>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C493" s="3"/>
+      <c r="E493" s="4"/>
+      <c r="I493" s="4"/>
+      <c r="J493" s="4"/>
+      <c r="O493" s="4"/>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C494" s="3"/>
+      <c r="E494" s="4"/>
+      <c r="I494" s="4"/>
+      <c r="J494" s="4"/>
+      <c r="O494" s="4"/>
+    </row>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C495" s="3"/>
+      <c r="E495" s="4"/>
+      <c r="I495" s="4"/>
+      <c r="J495" s="4"/>
+      <c r="O495" s="4"/>
+    </row>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C496" s="3"/>
+      <c r="E496" s="4"/>
+      <c r="I496" s="4"/>
+      <c r="J496" s="4"/>
+      <c r="O496" s="4"/>
+    </row>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C497" s="3"/>
+      <c r="E497" s="4"/>
+      <c r="I497" s="4"/>
+      <c r="J497" s="4"/>
+      <c r="O497" s="4"/>
+    </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C498" s="3"/>
+      <c r="E498" s="4"/>
+      <c r="I498" s="4"/>
+      <c r="J498" s="4"/>
+      <c r="O498" s="4"/>
+    </row>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C499" s="3"/>
+      <c r="E499" s="4"/>
+      <c r="I499" s="4"/>
+      <c r="J499" s="4"/>
+      <c r="O499" s="4"/>
+    </row>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C500" s="3"/>
+      <c r="E500" s="4"/>
+      <c r="I500" s="4"/>
+      <c r="J500" s="4"/>
+      <c r="O500" s="4"/>
+    </row>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C501" s="3"/>
+      <c r="E501" s="4"/>
+      <c r="I501" s="4"/>
+      <c r="J501" s="4"/>
+      <c r="O501" s="4"/>
+    </row>
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C502" s="3"/>
+      <c r="E502" s="4"/>
+      <c r="I502" s="4"/>
+      <c r="J502" s="4"/>
+      <c r="O502" s="4"/>
+    </row>
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C503" s="3"/>
+      <c r="E503" s="4"/>
+      <c r="I503" s="4"/>
+      <c r="J503" s="4"/>
+      <c r="O503" s="4"/>
+    </row>
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C504" s="3"/>
+      <c r="E504" s="4"/>
+      <c r="I504" s="4"/>
+      <c r="J504" s="4"/>
+      <c r="O504" s="4"/>
+    </row>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C505" s="3"/>
+      <c r="E505" s="4"/>
+      <c r="I505" s="4"/>
+      <c r="J505" s="4"/>
+      <c r="O505" s="4"/>
+    </row>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C506" s="3"/>
+      <c r="E506" s="4"/>
+      <c r="I506" s="4"/>
+      <c r="J506" s="4"/>
+      <c r="O506" s="4"/>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C507" s="3"/>
+      <c r="E507" s="4"/>
+      <c r="I507" s="4"/>
+      <c r="J507" s="4"/>
+      <c r="O507" s="4"/>
+    </row>
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C508" s="3"/>
+      <c r="E508" s="4"/>
+      <c r="I508" s="4"/>
+      <c r="J508" s="4"/>
+      <c r="O508" s="4"/>
+    </row>
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C509" s="3"/>
+      <c r="E509" s="4"/>
+      <c r="I509" s="4"/>
+      <c r="J509" s="4"/>
+      <c r="O509" s="4"/>
+    </row>
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="3"/>
+      <c r="E510" s="4"/>
+      <c r="I510" s="4"/>
+      <c r="J510" s="4"/>
+      <c r="O510" s="4"/>
+    </row>
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C511" s="3"/>
+      <c r="E511" s="4"/>
+      <c r="I511" s="4"/>
+      <c r="J511" s="4"/>
+      <c r="O511" s="4"/>
+    </row>
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C512" s="3"/>
+      <c r="E512" s="4"/>
+      <c r="I512" s="4"/>
+      <c r="J512" s="4"/>
+      <c r="O512" s="4"/>
+    </row>
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C513" s="3"/>
+      <c r="E513" s="4"/>
+      <c r="I513" s="4"/>
+      <c r="J513" s="4"/>
+      <c r="O513" s="4"/>
+    </row>
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C514" s="3"/>
+      <c r="E514" s="4"/>
+      <c r="I514" s="4"/>
+      <c r="J514" s="4"/>
+      <c r="O514" s="4"/>
+    </row>
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C515" s="3"/>
+      <c r="E515" s="4"/>
+      <c r="I515" s="4"/>
+      <c r="J515" s="4"/>
+      <c r="O515" s="4"/>
+    </row>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C516" s="3"/>
+      <c r="E516" s="4"/>
+      <c r="I516" s="4"/>
+      <c r="J516" s="4"/>
+      <c r="O516" s="4"/>
+    </row>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C517" s="3"/>
+      <c r="E517" s="4"/>
+      <c r="I517" s="4"/>
+      <c r="J517" s="4"/>
+      <c r="O517" s="4"/>
+    </row>
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C518" s="3"/>
+      <c r="E518" s="4"/>
+      <c r="I518" s="4"/>
+      <c r="J518" s="4"/>
+      <c r="O518" s="4"/>
+    </row>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C519" s="3"/>
+      <c r="E519" s="4"/>
+      <c r="I519" s="4"/>
+      <c r="J519" s="4"/>
+      <c r="O519" s="4"/>
+    </row>
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C520" s="3"/>
+      <c r="E520" s="4"/>
+      <c r="I520" s="4"/>
+      <c r="J520" s="4"/>
+      <c r="O520" s="4"/>
+    </row>
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C521" s="3"/>
+      <c r="E521" s="4"/>
+      <c r="I521" s="4"/>
+      <c r="J521" s="4"/>
+      <c r="O521" s="4"/>
+    </row>
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C522" s="3"/>
+      <c r="E522" s="4"/>
+      <c r="I522" s="4"/>
+      <c r="J522" s="4"/>
+      <c r="O522" s="4"/>
+    </row>
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C523" s="3"/>
+      <c r="E523" s="4"/>
+      <c r="I523" s="4"/>
+      <c r="J523" s="4"/>
+      <c r="O523" s="4"/>
+    </row>
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C524" s="3"/>
+      <c r="E524" s="4"/>
+      <c r="I524" s="4"/>
+      <c r="J524" s="4"/>
+      <c r="O524" s="4"/>
+    </row>
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C525" s="3"/>
+      <c r="E525" s="4"/>
+      <c r="I525" s="4"/>
+      <c r="J525" s="4"/>
+      <c r="O525" s="4"/>
+    </row>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C526" s="3"/>
+      <c r="E526" s="4"/>
+      <c r="I526" s="4"/>
+      <c r="J526" s="4"/>
+      <c r="O526" s="4"/>
+    </row>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C527" s="3"/>
+      <c r="E527" s="4"/>
+      <c r="I527" s="4"/>
+      <c r="J527" s="4"/>
+      <c r="O527" s="4"/>
+    </row>
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C528" s="3"/>
+      <c r="E528" s="4"/>
+      <c r="I528" s="4"/>
+      <c r="J528" s="4"/>
+      <c r="O528" s="4"/>
+    </row>
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C529" s="3"/>
+      <c r="E529" s="4"/>
+      <c r="I529" s="4"/>
+      <c r="J529" s="4"/>
+      <c r="O529" s="4"/>
+    </row>
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C530" s="3"/>
+      <c r="E530" s="4"/>
+      <c r="I530" s="4"/>
+      <c r="J530" s="4"/>
+      <c r="O530" s="4"/>
+    </row>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C531" s="3"/>
+      <c r="E531" s="4"/>
+      <c r="I531" s="4"/>
+      <c r="J531" s="4"/>
+      <c r="O531" s="4"/>
+    </row>
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C532" s="3"/>
+      <c r="E532" s="4"/>
+      <c r="I532" s="4"/>
+      <c r="J532" s="4"/>
+      <c r="O532" s="4"/>
+    </row>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="3"/>
+      <c r="E533" s="4"/>
+      <c r="I533" s="4"/>
+      <c r="J533" s="4"/>
+      <c r="O533" s="4"/>
+    </row>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C534" s="3"/>
+      <c r="E534" s="4"/>
+      <c r="I534" s="4"/>
+      <c r="J534" s="4"/>
+      <c r="O534" s="4"/>
+    </row>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C535" s="3"/>
+      <c r="E535" s="4"/>
+      <c r="I535" s="4"/>
+      <c r="J535" s="4"/>
+      <c r="O535" s="4"/>
+    </row>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C536" s="3"/>
+      <c r="E536" s="4"/>
+      <c r="I536" s="4"/>
+      <c r="J536" s="4"/>
+      <c r="O536" s="4"/>
+    </row>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C537" s="3"/>
+      <c r="E537" s="4"/>
+      <c r="I537" s="4"/>
+      <c r="J537" s="4"/>
+      <c r="O537" s="4"/>
+    </row>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C538" s="3"/>
+      <c r="E538" s="4"/>
+      <c r="I538" s="4"/>
+      <c r="J538" s="4"/>
+      <c r="O538" s="4"/>
+    </row>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C539" s="3"/>
+      <c r="E539" s="4"/>
+      <c r="I539" s="4"/>
+      <c r="J539" s="4"/>
+      <c r="O539" s="4"/>
+    </row>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C540" s="3"/>
+      <c r="E540" s="4"/>
+      <c r="I540" s="4"/>
+      <c r="J540" s="4"/>
+      <c r="O540" s="4"/>
+    </row>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C541" s="3"/>
+      <c r="E541" s="4"/>
+      <c r="I541" s="4"/>
+      <c r="J541" s="4"/>
+      <c r="O541" s="4"/>
+    </row>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C542" s="3"/>
+      <c r="E542" s="4"/>
+      <c r="I542" s="4"/>
+      <c r="J542" s="4"/>
+      <c r="O542" s="4"/>
+    </row>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C543" s="3"/>
+      <c r="E543" s="4"/>
+      <c r="I543" s="4"/>
+      <c r="J543" s="4"/>
+      <c r="O543" s="4"/>
+    </row>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C544" s="3"/>
+      <c r="E544" s="4"/>
+      <c r="I544" s="4"/>
+      <c r="J544" s="4"/>
+      <c r="O544" s="4"/>
+    </row>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C545" s="3"/>
+      <c r="E545" s="4"/>
+      <c r="I545" s="4"/>
+      <c r="J545" s="4"/>
+      <c r="O545" s="4"/>
+    </row>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C546" s="3"/>
+      <c r="E546" s="4"/>
+      <c r="I546" s="4"/>
+      <c r="J546" s="4"/>
+      <c r="O546" s="4"/>
+    </row>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C547" s="3"/>
+      <c r="E547" s="4"/>
+      <c r="I547" s="4"/>
+      <c r="J547" s="4"/>
+      <c r="O547" s="4"/>
+    </row>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C548" s="3"/>
+      <c r="E548" s="4"/>
+      <c r="I548" s="4"/>
+      <c r="J548" s="4"/>
+      <c r="O548" s="4"/>
+    </row>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C549" s="3"/>
+      <c r="E549" s="4"/>
+      <c r="I549" s="4"/>
+      <c r="J549" s="4"/>
+      <c r="O549" s="4"/>
+    </row>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C550" s="3"/>
+      <c r="E550" s="4"/>
+      <c r="I550" s="4"/>
+      <c r="J550" s="4"/>
+      <c r="O550" s="4"/>
+    </row>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C551" s="3"/>
+      <c r="E551" s="4"/>
+      <c r="I551" s="4"/>
+      <c r="J551" s="4"/>
+      <c r="O551" s="4"/>
+    </row>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C552" s="3"/>
+      <c r="E552" s="4"/>
+      <c r="I552" s="4"/>
+      <c r="J552" s="4"/>
+      <c r="O552" s="4"/>
+    </row>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C553" s="3"/>
+      <c r="E553" s="4"/>
+      <c r="I553" s="4"/>
+      <c r="J553" s="4"/>
+      <c r="O553" s="4"/>
+    </row>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C554" s="3"/>
+      <c r="E554" s="4"/>
+      <c r="I554" s="4"/>
+      <c r="J554" s="4"/>
+      <c r="O554" s="4"/>
+    </row>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C555" s="3"/>
+      <c r="E555" s="4"/>
+      <c r="I555" s="4"/>
+      <c r="J555" s="4"/>
+      <c r="O555" s="4"/>
+    </row>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C556" s="3"/>
+      <c r="E556" s="4"/>
+      <c r="I556" s="4"/>
+      <c r="J556" s="4"/>
+      <c r="O556" s="4"/>
+    </row>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C557" s="3"/>
+      <c r="E557" s="4"/>
+      <c r="I557" s="4"/>
+      <c r="J557" s="4"/>
+      <c r="O557" s="4"/>
+    </row>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C558" s="3"/>
+      <c r="E558" s="4"/>
+      <c r="I558" s="4"/>
+      <c r="J558" s="4"/>
+      <c r="O558" s="4"/>
+    </row>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C559" s="3"/>
+      <c r="E559" s="4"/>
+      <c r="I559" s="4"/>
+      <c r="J559" s="4"/>
+      <c r="O559" s="4"/>
+    </row>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C560" s="3"/>
+      <c r="E560" s="4"/>
+      <c r="I560" s="4"/>
+      <c r="J560" s="4"/>
+      <c r="O560" s="4"/>
+    </row>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C561" s="3"/>
+      <c r="E561" s="4"/>
+      <c r="I561" s="4"/>
+      <c r="J561" s="4"/>
+      <c r="O561" s="4"/>
+    </row>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C562" s="3"/>
+      <c r="E562" s="4"/>
+      <c r="I562" s="4"/>
+      <c r="J562" s="4"/>
+      <c r="O562" s="4"/>
+    </row>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C563" s="3"/>
+      <c r="E563" s="4"/>
+      <c r="I563" s="4"/>
+      <c r="J563" s="4"/>
+      <c r="O563" s="4"/>
+    </row>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C564" s="3"/>
+      <c r="E564" s="4"/>
+      <c r="I564" s="4"/>
+      <c r="J564" s="4"/>
+      <c r="O564" s="4"/>
+    </row>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C565" s="3"/>
+      <c r="E565" s="4"/>
+      <c r="I565" s="4"/>
+      <c r="J565" s="4"/>
+      <c r="O565" s="4"/>
+    </row>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C566" s="3"/>
+      <c r="E566" s="4"/>
+      <c r="I566" s="4"/>
+      <c r="J566" s="4"/>
+      <c r="O566" s="4"/>
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C567" s="3"/>
+      <c r="E567" s="4"/>
+      <c r="I567" s="4"/>
+      <c r="J567" s="4"/>
+      <c r="O567" s="4"/>
+    </row>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C568" s="3"/>
+      <c r="E568" s="4"/>
+      <c r="I568" s="4"/>
+      <c r="J568" s="4"/>
+      <c r="O568" s="4"/>
+    </row>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C569" s="3"/>
+      <c r="E569" s="4"/>
+      <c r="I569" s="4"/>
+      <c r="J569" s="4"/>
+      <c r="O569" s="4"/>
+    </row>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C570" s="3"/>
+      <c r="E570" s="4"/>
+      <c r="I570" s="4"/>
+      <c r="J570" s="4"/>
+      <c r="O570" s="4"/>
+    </row>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C571" s="3"/>
+      <c r="E571" s="4"/>
+      <c r="I571" s="4"/>
+      <c r="J571" s="4"/>
+      <c r="O571" s="4"/>
+    </row>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C572" s="3"/>
+      <c r="E572" s="4"/>
+      <c r="I572" s="4"/>
+      <c r="J572" s="4"/>
+      <c r="O572" s="4"/>
+    </row>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C573" s="3"/>
+      <c r="E573" s="4"/>
+      <c r="I573" s="4"/>
+      <c r="J573" s="4"/>
+      <c r="O573" s="4"/>
+    </row>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C574" s="3"/>
+      <c r="E574" s="4"/>
+      <c r="I574" s="4"/>
+      <c r="J574" s="4"/>
+      <c r="O574" s="4"/>
+    </row>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C575" s="3"/>
+      <c r="E575" s="4"/>
+      <c r="I575" s="4"/>
+      <c r="J575" s="4"/>
+      <c r="O575" s="4"/>
+    </row>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C576" s="3"/>
+      <c r="E576" s="4"/>
+      <c r="I576" s="4"/>
+      <c r="J576" s="4"/>
+      <c r="O576" s="4"/>
+    </row>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C577" s="3"/>
+      <c r="E577" s="4"/>
+      <c r="I577" s="4"/>
+      <c r="J577" s="4"/>
+      <c r="O577" s="4"/>
+    </row>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C578" s="3"/>
+      <c r="E578" s="4"/>
+      <c r="I578" s="4"/>
+      <c r="J578" s="4"/>
+      <c r="O578" s="4"/>
+    </row>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C579" s="3"/>
+      <c r="E579" s="4"/>
+      <c r="I579" s="4"/>
+      <c r="J579" s="4"/>
+      <c r="O579" s="4"/>
+    </row>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C580" s="3"/>
+      <c r="E580" s="4"/>
+      <c r="I580" s="4"/>
+      <c r="J580" s="4"/>
+      <c r="O580" s="4"/>
+    </row>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C581" s="3"/>
+      <c r="E581" s="4"/>
+      <c r="I581" s="4"/>
+      <c r="J581" s="4"/>
+      <c r="O581" s="4"/>
+    </row>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C582" s="3"/>
+      <c r="E582" s="4"/>
+      <c r="I582" s="4"/>
+      <c r="J582" s="4"/>
+      <c r="O582" s="4"/>
+    </row>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="3"/>
+      <c r="E583" s="4"/>
+      <c r="I583" s="4"/>
+      <c r="J583" s="4"/>
+      <c r="O583" s="4"/>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C584" s="3"/>
+      <c r="E584" s="4"/>
+      <c r="I584" s="4"/>
+      <c r="J584" s="4"/>
+      <c r="O584" s="4"/>
+    </row>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C585" s="3"/>
+      <c r="E585" s="4"/>
+      <c r="I585" s="4"/>
+      <c r="J585" s="4"/>
+      <c r="O585" s="4"/>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="3"/>
+      <c r="E586" s="4"/>
+      <c r="I586" s="4"/>
+      <c r="J586" s="4"/>
+      <c r="O586" s="4"/>
+    </row>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C587" s="3"/>
+      <c r="E587" s="4"/>
+      <c r="I587" s="4"/>
+      <c r="J587" s="4"/>
+      <c r="O587" s="4"/>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C588" s="3"/>
+      <c r="E588" s="4"/>
+      <c r="I588" s="4"/>
+      <c r="J588" s="4"/>
+      <c r="O588" s="4"/>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C589" s="3"/>
+      <c r="E589" s="4"/>
+      <c r="I589" s="4"/>
+      <c r="J589" s="4"/>
+      <c r="O589" s="4"/>
+    </row>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C590" s="3"/>
+      <c r="E590" s="4"/>
+      <c r="I590" s="4"/>
+      <c r="J590" s="4"/>
+      <c r="O590" s="4"/>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C591" s="3"/>
+      <c r="E591" s="4"/>
+      <c r="I591" s="4"/>
+      <c r="J591" s="4"/>
+      <c r="O591" s="4"/>
+    </row>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C592" s="3"/>
+      <c r="E592" s="4"/>
+      <c r="I592" s="4"/>
+      <c r="J592" s="4"/>
+      <c r="O592" s="4"/>
+    </row>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="3"/>
+      <c r="E593" s="4"/>
+      <c r="I593" s="4"/>
+      <c r="J593" s="4"/>
+      <c r="O593" s="4"/>
+    </row>
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="3"/>
+      <c r="E594" s="4"/>
+      <c r="I594" s="4"/>
+      <c r="J594" s="4"/>
+      <c r="O594" s="4"/>
+    </row>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="3"/>
+      <c r="E595" s="4"/>
+      <c r="I595" s="4"/>
+      <c r="J595" s="4"/>
+      <c r="O595" s="4"/>
+    </row>
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="3"/>
+      <c r="E596" s="4"/>
+      <c r="I596" s="4"/>
+      <c r="J596" s="4"/>
+      <c r="O596" s="4"/>
+    </row>
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="3"/>
+      <c r="E597" s="4"/>
+      <c r="I597" s="4"/>
+      <c r="J597" s="4"/>
+      <c r="O597" s="4"/>
+    </row>
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="3"/>
+      <c r="E598" s="4"/>
+      <c r="I598" s="4"/>
+      <c r="J598" s="4"/>
+      <c r="O598" s="4"/>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="3"/>
+      <c r="E599" s="4"/>
+      <c r="I599" s="4"/>
+      <c r="J599" s="4"/>
+      <c r="O599" s="4"/>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C600" s="3"/>
+      <c r="E600" s="4"/>
+      <c r="I600" s="4"/>
+      <c r="J600" s="4"/>
+      <c r="O600" s="4"/>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C601" s="3"/>
+      <c r="E601" s="4"/>
+      <c r="I601" s="4"/>
+      <c r="J601" s="4"/>
+      <c r="O601" s="4"/>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C602" s="3"/>
+      <c r="E602" s="4"/>
+      <c r="I602" s="4"/>
+      <c r="J602" s="4"/>
+      <c r="O602" s="4"/>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="3"/>
+      <c r="E603" s="4"/>
+      <c r="I603" s="4"/>
+      <c r="J603" s="4"/>
+      <c r="O603" s="4"/>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C604" s="3"/>
+      <c r="E604" s="4"/>
+      <c r="I604" s="4"/>
+      <c r="J604" s="4"/>
+      <c r="O604" s="4"/>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="3"/>
+      <c r="E605" s="4"/>
+      <c r="I605" s="4"/>
+      <c r="J605" s="4"/>
+      <c r="O605" s="4"/>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C606" s="3"/>
+      <c r="E606" s="4"/>
+      <c r="I606" s="4"/>
+      <c r="J606" s="4"/>
+      <c r="O606" s="4"/>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C607" s="3"/>
+      <c r="E607" s="4"/>
+      <c r="I607" s="4"/>
+      <c r="J607" s="4"/>
+      <c r="O607" s="4"/>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C608" s="3"/>
+      <c r="E608" s="4"/>
+      <c r="I608" s="4"/>
+      <c r="J608" s="4"/>
+      <c r="O608" s="4"/>
+    </row>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C609" s="3"/>
+      <c r="E609" s="4"/>
+      <c r="I609" s="4"/>
+      <c r="J609" s="4"/>
+      <c r="O609" s="4"/>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C610" s="3"/>
+      <c r="E610" s="4"/>
+      <c r="I610" s="4"/>
+      <c r="J610" s="4"/>
+      <c r="O610" s="4"/>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C611" s="3"/>
+      <c r="E611" s="4"/>
+      <c r="I611" s="4"/>
+      <c r="J611" s="4"/>
+      <c r="O611" s="4"/>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="3"/>
+      <c r="E612" s="4"/>
+      <c r="I612" s="4"/>
+      <c r="J612" s="4"/>
+      <c r="O612" s="4"/>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C613" s="3"/>
+      <c r="E613" s="4"/>
+      <c r="I613" s="4"/>
+      <c r="J613" s="4"/>
+      <c r="O613" s="4"/>
+    </row>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C614" s="3"/>
+      <c r="E614" s="4"/>
+      <c r="I614" s="4"/>
+      <c r="J614" s="4"/>
+      <c r="O614" s="4"/>
+    </row>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C615" s="3"/>
+      <c r="E615" s="4"/>
+      <c r="I615" s="4"/>
+      <c r="J615" s="4"/>
+      <c r="O615" s="4"/>
+    </row>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C616" s="3"/>
+      <c r="E616" s="4"/>
+      <c r="I616" s="4"/>
+      <c r="J616" s="4"/>
+      <c r="O616" s="4"/>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C617" s="3"/>
+      <c r="E617" s="4"/>
+      <c r="I617" s="4"/>
+      <c r="J617" s="4"/>
+      <c r="O617" s="4"/>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C618" s="3"/>
+      <c r="E618" s="4"/>
+      <c r="I618" s="4"/>
+      <c r="J618" s="4"/>
+      <c r="O618" s="4"/>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C619" s="3"/>
+      <c r="E619" s="4"/>
+      <c r="I619" s="4"/>
+      <c r="J619" s="4"/>
+      <c r="O619" s="4"/>
+    </row>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C620" s="3"/>
+      <c r="E620" s="4"/>
+      <c r="I620" s="4"/>
+      <c r="J620" s="4"/>
+      <c r="O620" s="4"/>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C621" s="3"/>
+      <c r="E621" s="4"/>
+      <c r="I621" s="4"/>
+      <c r="J621" s="4"/>
+      <c r="O621" s="4"/>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C622" s="3"/>
+      <c r="E622" s="4"/>
+      <c r="I622" s="4"/>
+      <c r="J622" s="4"/>
+      <c r="O622" s="4"/>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C623" s="3"/>
+      <c r="E623" s="4"/>
+      <c r="I623" s="4"/>
+      <c r="J623" s="4"/>
+      <c r="O623" s="4"/>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C624" s="3"/>
+      <c r="E624" s="4"/>
+      <c r="I624" s="4"/>
+      <c r="J624" s="4"/>
+      <c r="O624" s="4"/>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C625" s="3"/>
+      <c r="E625" s="4"/>
+      <c r="I625" s="4"/>
+      <c r="J625" s="4"/>
+      <c r="O625" s="4"/>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C626" s="3"/>
+      <c r="E626" s="4"/>
+      <c r="I626" s="4"/>
+      <c r="J626" s="4"/>
+      <c r="O626" s="4"/>
+    </row>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C627" s="3"/>
+      <c r="E627" s="4"/>
+      <c r="I627" s="4"/>
+      <c r="J627" s="4"/>
+      <c r="O627" s="4"/>
+    </row>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C628" s="3"/>
+      <c r="E628" s="4"/>
+      <c r="I628" s="4"/>
+      <c r="J628" s="4"/>
+      <c r="O628" s="4"/>
+    </row>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C629" s="3"/>
+      <c r="E629" s="4"/>
+      <c r="I629" s="4"/>
+      <c r="J629" s="4"/>
+      <c r="O629" s="4"/>
+    </row>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C630" s="3"/>
+      <c r="E630" s="4"/>
+      <c r="I630" s="4"/>
+      <c r="J630" s="4"/>
+      <c r="O630" s="4"/>
+    </row>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C631" s="3"/>
+      <c r="E631" s="4"/>
+      <c r="I631" s="4"/>
+      <c r="J631" s="4"/>
+      <c r="O631" s="4"/>
+    </row>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C632" s="3"/>
+      <c r="E632" s="4"/>
+      <c r="I632" s="4"/>
+      <c r="J632" s="4"/>
+      <c r="O632" s="4"/>
+    </row>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C633" s="3"/>
+      <c r="E633" s="4"/>
+      <c r="I633" s="4"/>
+      <c r="J633" s="4"/>
+      <c r="O633" s="4"/>
+    </row>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C634" s="3"/>
+      <c r="E634" s="4"/>
+      <c r="I634" s="4"/>
+      <c r="J634" s="4"/>
+      <c r="O634" s="4"/>
+    </row>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C635" s="3"/>
+      <c r="E635" s="4"/>
+      <c r="I635" s="4"/>
+      <c r="J635" s="4"/>
+      <c r="O635" s="4"/>
+    </row>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C636" s="3"/>
+      <c r="E636" s="4"/>
+      <c r="I636" s="4"/>
+      <c r="J636" s="4"/>
+      <c r="O636" s="4"/>
+    </row>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C637" s="3"/>
+      <c r="E637" s="4"/>
+      <c r="I637" s="4"/>
+      <c r="J637" s="4"/>
+      <c r="O637" s="4"/>
+    </row>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C638" s="3"/>
+      <c r="E638" s="4"/>
+      <c r="I638" s="4"/>
+      <c r="J638" s="4"/>
+      <c r="O638" s="4"/>
+    </row>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C639" s="3"/>
+      <c r="E639" s="4"/>
+      <c r="I639" s="4"/>
+      <c r="J639" s="4"/>
+      <c r="O639" s="4"/>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C640" s="3"/>
+      <c r="E640" s="4"/>
+      <c r="I640" s="4"/>
+      <c r="J640" s="4"/>
+      <c r="O640" s="4"/>
+    </row>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C641" s="3"/>
+      <c r="E641" s="4"/>
+      <c r="I641" s="4"/>
+      <c r="J641" s="4"/>
+      <c r="O641" s="4"/>
+    </row>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C642" s="3"/>
+      <c r="E642" s="4"/>
+      <c r="I642" s="4"/>
+      <c r="J642" s="4"/>
+      <c r="O642" s="4"/>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C643" s="3"/>
+      <c r="E643" s="4"/>
+      <c r="I643" s="4"/>
+      <c r="J643" s="4"/>
+      <c r="O643" s="4"/>
+    </row>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C644" s="3"/>
+      <c r="E644" s="4"/>
+      <c r="I644" s="4"/>
+      <c r="J644" s="4"/>
+      <c r="O644" s="4"/>
+    </row>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C645" s="3"/>
+      <c r="E645" s="4"/>
+      <c r="I645" s="4"/>
+      <c r="J645" s="4"/>
+      <c r="O645" s="4"/>
+    </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C646" s="3"/>
+      <c r="E646" s="4"/>
+      <c r="I646" s="4"/>
+      <c r="J646" s="4"/>
+      <c r="O646" s="4"/>
+    </row>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C647" s="3"/>
+      <c r="E647" s="4"/>
+      <c r="I647" s="4"/>
+      <c r="J647" s="4"/>
+      <c r="O647" s="4"/>
+    </row>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C648" s="3"/>
+      <c r="E648" s="4"/>
+      <c r="I648" s="4"/>
+      <c r="J648" s="4"/>
+      <c r="O648" s="4"/>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C649" s="3"/>
+      <c r="E649" s="4"/>
+      <c r="I649" s="4"/>
+      <c r="J649" s="4"/>
+      <c r="O649" s="4"/>
+    </row>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C650" s="3"/>
+      <c r="E650" s="4"/>
+      <c r="I650" s="4"/>
+      <c r="J650" s="4"/>
+      <c r="O650" s="4"/>
+    </row>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C651" s="3"/>
+      <c r="E651" s="4"/>
+      <c r="I651" s="4"/>
+      <c r="J651" s="4"/>
+      <c r="O651" s="4"/>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C652" s="3"/>
+      <c r="E652" s="4"/>
+      <c r="I652" s="4"/>
+      <c r="J652" s="4"/>
+      <c r="O652" s="4"/>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C653" s="3"/>
+      <c r="E653" s="4"/>
+      <c r="I653" s="4"/>
+      <c r="J653" s="4"/>
+      <c r="O653" s="4"/>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C654" s="3"/>
+      <c r="E654" s="4"/>
+      <c r="I654" s="4"/>
+      <c r="J654" s="4"/>
+      <c r="O654" s="4"/>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C655" s="3"/>
+      <c r="E655" s="4"/>
+      <c r="I655" s="4"/>
+      <c r="J655" s="4"/>
+      <c r="O655" s="4"/>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C656" s="3"/>
+      <c r="E656" s="4"/>
+      <c r="I656" s="4"/>
+      <c r="J656" s="4"/>
+      <c r="O656" s="4"/>
+    </row>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C657" s="3"/>
+      <c r="E657" s="4"/>
+      <c r="I657" s="4"/>
+      <c r="J657" s="4"/>
+      <c r="O657" s="4"/>
+    </row>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C658" s="3"/>
+      <c r="E658" s="4"/>
+      <c r="I658" s="4"/>
+      <c r="J658" s="4"/>
+      <c r="O658" s="4"/>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C659" s="3"/>
+      <c r="E659" s="4"/>
+      <c r="I659" s="4"/>
+      <c r="J659" s="4"/>
+      <c r="O659" s="4"/>
+    </row>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C660" s="3"/>
+      <c r="E660" s="4"/>
+      <c r="I660" s="4"/>
+      <c r="J660" s="4"/>
+      <c r="O660" s="4"/>
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C661" s="3"/>
+      <c r="E661" s="4"/>
+      <c r="I661" s="4"/>
+      <c r="J661" s="4"/>
+      <c r="O661" s="4"/>
+    </row>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C662" s="3"/>
+      <c r="E662" s="4"/>
+      <c r="I662" s="4"/>
+      <c r="J662" s="4"/>
+      <c r="O662" s="4"/>
+    </row>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C663" s="3"/>
+      <c r="E663" s="4"/>
+      <c r="I663" s="4"/>
+      <c r="J663" s="4"/>
+      <c r="O663" s="4"/>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C664" s="3"/>
+      <c r="E664" s="4"/>
+      <c r="I664" s="4"/>
+      <c r="J664" s="4"/>
+      <c r="O664" s="4"/>
+    </row>
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C665" s="3"/>
+      <c r="E665" s="4"/>
+      <c r="I665" s="4"/>
+      <c r="J665" s="4"/>
+      <c r="O665" s="4"/>
+    </row>
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C666" s="3"/>
+      <c r="E666" s="4"/>
+      <c r="I666" s="4"/>
+      <c r="J666" s="4"/>
+      <c r="O666" s="4"/>
+    </row>
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C667" s="3"/>
+      <c r="E667" s="4"/>
+      <c r="I667" s="4"/>
+      <c r="J667" s="4"/>
+      <c r="O667" s="4"/>
+    </row>
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C668" s="3"/>
+      <c r="E668" s="4"/>
+      <c r="I668" s="4"/>
+      <c r="J668" s="4"/>
+      <c r="O668" s="4"/>
+    </row>
+    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C669" s="3"/>
+      <c r="E669" s="4"/>
+      <c r="I669" s="4"/>
+      <c r="J669" s="4"/>
+      <c r="O669" s="4"/>
+    </row>
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C670" s="3"/>
+      <c r="E670" s="4"/>
+      <c r="I670" s="4"/>
+      <c r="J670" s="4"/>
+      <c r="O670" s="4"/>
+    </row>
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C671" s="3"/>
+      <c r="E671" s="4"/>
+      <c r="I671" s="4"/>
+      <c r="J671" s="4"/>
+      <c r="O671" s="4"/>
+    </row>
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C672" s="3"/>
+      <c r="E672" s="4"/>
+      <c r="I672" s="4"/>
+      <c r="J672" s="4"/>
+      <c r="O672" s="4"/>
+    </row>
+    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C673" s="3"/>
+      <c r="E673" s="4"/>
+      <c r="I673" s="4"/>
+      <c r="J673" s="4"/>
+      <c r="O673" s="4"/>
+    </row>
+    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C674" s="3"/>
+      <c r="E674" s="4"/>
+      <c r="I674" s="4"/>
+      <c r="J674" s="4"/>
+      <c r="O674" s="4"/>
+    </row>
+    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C675" s="3"/>
+      <c r="E675" s="4"/>
+      <c r="I675" s="4"/>
+      <c r="J675" s="4"/>
+      <c r="O675" s="4"/>
+    </row>
+    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C676" s="3"/>
+      <c r="E676" s="4"/>
+      <c r="I676" s="4"/>
+      <c r="J676" s="4"/>
+      <c r="O676" s="4"/>
+    </row>
+    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C677" s="3"/>
+      <c r="E677" s="4"/>
+      <c r="I677" s="4"/>
+      <c r="J677" s="4"/>
+      <c r="O677" s="4"/>
+    </row>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C678" s="3"/>
+      <c r="E678" s="4"/>
+      <c r="I678" s="4"/>
+      <c r="J678" s="4"/>
+      <c r="O678" s="4"/>
+    </row>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C679" s="3"/>
+      <c r="E679" s="4"/>
+      <c r="I679" s="4"/>
+      <c r="J679" s="4"/>
+      <c r="O679" s="4"/>
+    </row>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C680" s="3"/>
+      <c r="E680" s="4"/>
+      <c r="I680" s="4"/>
+      <c r="J680" s="4"/>
+      <c r="O680" s="4"/>
+    </row>
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C681" s="3"/>
+      <c r="E681" s="4"/>
+      <c r="I681" s="4"/>
+      <c r="J681" s="4"/>
+      <c r="O681" s="4"/>
+    </row>
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C682" s="3"/>
+      <c r="E682" s="4"/>
+      <c r="I682" s="4"/>
+      <c r="J682" s="4"/>
+      <c r="O682" s="4"/>
+    </row>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C683" s="3"/>
+      <c r="E683" s="4"/>
+      <c r="I683" s="4"/>
+      <c r="J683" s="4"/>
+      <c r="O683" s="4"/>
+    </row>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C684" s="3"/>
+      <c r="E684" s="4"/>
+      <c r="I684" s="4"/>
+      <c r="J684" s="4"/>
+      <c r="O684" s="4"/>
+    </row>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C685" s="3"/>
+      <c r="E685" s="4"/>
+      <c r="I685" s="4"/>
+      <c r="J685" s="4"/>
+      <c r="O685" s="4"/>
+    </row>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C686" s="3"/>
+      <c r="E686" s="4"/>
+      <c r="I686" s="4"/>
+      <c r="J686" s="4"/>
+      <c r="O686" s="4"/>
+    </row>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C687" s="3"/>
+      <c r="E687" s="4"/>
+      <c r="I687" s="4"/>
+      <c r="J687" s="4"/>
+      <c r="O687" s="4"/>
+    </row>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C688" s="3"/>
+      <c r="E688" s="4"/>
+      <c r="I688" s="4"/>
+      <c r="J688" s="4"/>
+      <c r="O688" s="4"/>
+    </row>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C689" s="3"/>
+      <c r="E689" s="4"/>
+      <c r="I689" s="4"/>
+      <c r="J689" s="4"/>
+      <c r="O689" s="4"/>
+    </row>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C690" s="3"/>
+      <c r="E690" s="4"/>
+      <c r="I690" s="4"/>
+      <c r="J690" s="4"/>
+      <c r="O690" s="4"/>
+    </row>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C691" s="3"/>
+      <c r="E691" s="4"/>
+      <c r="I691" s="4"/>
+      <c r="J691" s="4"/>
+      <c r="O691" s="4"/>
+    </row>
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C692" s="3"/>
+      <c r="E692" s="4"/>
+      <c r="I692" s="4"/>
+      <c r="J692" s="4"/>
+      <c r="O692" s="4"/>
+    </row>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C693" s="3"/>
+      <c r="E693" s="4"/>
+      <c r="I693" s="4"/>
+      <c r="J693" s="4"/>
+      <c r="O693" s="4"/>
+    </row>
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C694" s="3"/>
+      <c r="E694" s="4"/>
+      <c r="I694" s="4"/>
+      <c r="J694" s="4"/>
+      <c r="O694" s="4"/>
+    </row>
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C695" s="3"/>
+      <c r="E695" s="4"/>
+      <c r="I695" s="4"/>
+      <c r="J695" s="4"/>
+      <c r="O695" s="4"/>
+    </row>
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C696" s="3"/>
+      <c r="E696" s="4"/>
+      <c r="I696" s="4"/>
+      <c r="J696" s="4"/>
+      <c r="O696" s="4"/>
+    </row>
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C697" s="3"/>
+      <c r="E697" s="4"/>
+      <c r="I697" s="4"/>
+      <c r="J697" s="4"/>
+      <c r="O697" s="4"/>
+    </row>
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C698" s="3"/>
+      <c r="E698" s="4"/>
+      <c r="I698" s="4"/>
+      <c r="J698" s="4"/>
+      <c r="O698" s="4"/>
+    </row>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C699" s="3"/>
+      <c r="E699" s="4"/>
+      <c r="I699" s="4"/>
+      <c r="J699" s="4"/>
+      <c r="O699" s="4"/>
+    </row>
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C700" s="3"/>
+      <c r="E700" s="4"/>
+      <c r="I700" s="4"/>
+      <c r="J700" s="4"/>
+      <c r="O700" s="4"/>
+    </row>
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C701" s="3"/>
+      <c r="E701" s="4"/>
+      <c r="I701" s="4"/>
+      <c r="J701" s="4"/>
+      <c r="O701" s="4"/>
+    </row>
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C702" s="3"/>
+      <c r="E702" s="4"/>
+      <c r="I702" s="4"/>
+      <c r="J702" s="4"/>
+      <c r="O702" s="4"/>
+    </row>
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C703" s="3"/>
+      <c r="E703" s="4"/>
+      <c r="I703" s="4"/>
+      <c r="J703" s="4"/>
+      <c r="O703" s="4"/>
+    </row>
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C704" s="3"/>
+      <c r="E704" s="4"/>
+      <c r="I704" s="4"/>
+      <c r="J704" s="4"/>
+      <c r="O704" s="4"/>
+    </row>
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C705" s="3"/>
+      <c r="E705" s="4"/>
+      <c r="I705" s="4"/>
+      <c r="J705" s="4"/>
+      <c r="O705" s="4"/>
+    </row>
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C706" s="3"/>
+      <c r="E706" s="4"/>
+      <c r="I706" s="4"/>
+      <c r="J706" s="4"/>
+      <c r="O706" s="4"/>
+    </row>
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C707" s="3"/>
+      <c r="E707" s="4"/>
+      <c r="I707" s="4"/>
+      <c r="J707" s="4"/>
+      <c r="O707" s="4"/>
+    </row>
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C708" s="3"/>
+      <c r="E708" s="4"/>
+      <c r="I708" s="4"/>
+      <c r="J708" s="4"/>
+      <c r="O708" s="4"/>
+    </row>
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C709" s="3"/>
+      <c r="E709" s="4"/>
+      <c r="I709" s="4"/>
+      <c r="J709" s="4"/>
+      <c r="O709" s="4"/>
+    </row>
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C710" s="3"/>
+      <c r="E710" s="4"/>
+      <c r="I710" s="4"/>
+      <c r="J710" s="4"/>
+      <c r="O710" s="4"/>
+    </row>
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C711" s="3"/>
+      <c r="E711" s="4"/>
+      <c r="I711" s="4"/>
+      <c r="J711" s="4"/>
+      <c r="O711" s="4"/>
+    </row>
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C712" s="3"/>
+      <c r="E712" s="4"/>
+      <c r="I712" s="4"/>
+      <c r="J712" s="4"/>
+      <c r="O712" s="4"/>
+    </row>
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C713" s="3"/>
+      <c r="E713" s="4"/>
+      <c r="I713" s="4"/>
+      <c r="J713" s="4"/>
+      <c r="O713" s="4"/>
+    </row>
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C714" s="3"/>
+      <c r="E714" s="4"/>
+      <c r="I714" s="4"/>
+      <c r="J714" s="4"/>
+      <c r="O714" s="4"/>
+    </row>
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C715" s="3"/>
+      <c r="E715" s="4"/>
+      <c r="I715" s="4"/>
+      <c r="J715" s="4"/>
+      <c r="O715" s="4"/>
+    </row>
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C716" s="3"/>
+      <c r="E716" s="4"/>
+      <c r="I716" s="4"/>
+      <c r="J716" s="4"/>
+      <c r="O716" s="4"/>
+    </row>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C717" s="3"/>
+      <c r="E717" s="4"/>
+      <c r="I717" s="4"/>
+      <c r="J717" s="4"/>
+      <c r="O717" s="4"/>
+    </row>
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C718" s="3"/>
+      <c r="E718" s="4"/>
+      <c r="I718" s="4"/>
+      <c r="J718" s="4"/>
+      <c r="O718" s="4"/>
+    </row>
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C719" s="3"/>
+      <c r="E719" s="4"/>
+      <c r="I719" s="4"/>
+      <c r="J719" s="4"/>
+      <c r="O719" s="4"/>
+    </row>
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C720" s="3"/>
+      <c r="E720" s="4"/>
+      <c r="I720" s="4"/>
+      <c r="J720" s="4"/>
+      <c r="O720" s="4"/>
+    </row>
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C721" s="3"/>
+      <c r="E721" s="4"/>
+      <c r="I721" s="4"/>
+      <c r="J721" s="4"/>
+      <c r="O721" s="4"/>
+    </row>
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C722" s="3"/>
+      <c r="E722" s="4"/>
+      <c r="I722" s="4"/>
+      <c r="J722" s="4"/>
+      <c r="O722" s="4"/>
+    </row>
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C723" s="3"/>
+      <c r="E723" s="4"/>
+      <c r="I723" s="4"/>
+      <c r="J723" s="4"/>
+      <c r="O723" s="4"/>
+    </row>
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C724" s="3"/>
+      <c r="E724" s="4"/>
+      <c r="I724" s="4"/>
+      <c r="J724" s="4"/>
+      <c r="O724" s="4"/>
+    </row>
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C725" s="3"/>
+      <c r="E725" s="4"/>
+      <c r="I725" s="4"/>
+      <c r="J725" s="4"/>
+      <c r="O725" s="4"/>
+    </row>
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C726" s="3"/>
+      <c r="E726" s="4"/>
+      <c r="I726" s="4"/>
+      <c r="J726" s="4"/>
+      <c r="O726" s="4"/>
+    </row>
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C727" s="3"/>
+      <c r="E727" s="4"/>
+      <c r="I727" s="4"/>
+      <c r="J727" s="4"/>
+      <c r="O727" s="4"/>
+    </row>
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C728" s="3"/>
+      <c r="E728" s="4"/>
+      <c r="I728" s="4"/>
+      <c r="J728" s="4"/>
+      <c r="O728" s="4"/>
+    </row>
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C729" s="3"/>
+      <c r="E729" s="4"/>
+      <c r="I729" s="4"/>
+      <c r="J729" s="4"/>
+      <c r="O729" s="4"/>
+    </row>
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C730" s="3"/>
+      <c r="E730" s="4"/>
+      <c r="I730" s="4"/>
+      <c r="J730" s="4"/>
+      <c r="O730" s="4"/>
+    </row>
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C731" s="3"/>
+      <c r="E731" s="4"/>
+      <c r="I731" s="4"/>
+      <c r="J731" s="4"/>
+      <c r="O731" s="4"/>
+    </row>
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C732" s="3"/>
+      <c r="E732" s="4"/>
+      <c r="I732" s="4"/>
+      <c r="J732" s="4"/>
+      <c r="O732" s="4"/>
+    </row>
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C733" s="3"/>
+      <c r="E733" s="4"/>
+      <c r="I733" s="4"/>
+      <c r="J733" s="4"/>
+      <c r="O733" s="4"/>
+    </row>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C734" s="3"/>
+      <c r="E734" s="4"/>
+      <c r="I734" s="4"/>
+      <c r="J734" s="4"/>
+      <c r="O734" s="4"/>
+    </row>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C735" s="3"/>
+      <c r="E735" s="4"/>
+      <c r="I735" s="4"/>
+      <c r="J735" s="4"/>
+      <c r="O735" s="4"/>
+    </row>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C736" s="3"/>
+      <c r="E736" s="4"/>
+      <c r="I736" s="4"/>
+      <c r="J736" s="4"/>
+      <c r="O736" s="4"/>
+    </row>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C737" s="3"/>
+      <c r="E737" s="4"/>
+      <c r="I737" s="4"/>
+      <c r="J737" s="4"/>
+      <c r="O737" s="4"/>
+    </row>
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C738" s="3"/>
+      <c r="E738" s="4"/>
+      <c r="I738" s="4"/>
+      <c r="J738" s="4"/>
+      <c r="O738" s="4"/>
+    </row>
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C739" s="3"/>
+      <c r="E739" s="4"/>
+      <c r="I739" s="4"/>
+      <c r="J739" s="4"/>
+      <c r="O739" s="4"/>
+    </row>
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C740" s="3"/>
+      <c r="E740" s="4"/>
+      <c r="I740" s="4"/>
+      <c r="J740" s="4"/>
+      <c r="O740" s="4"/>
+    </row>
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C741" s="3"/>
+      <c r="E741" s="4"/>
+      <c r="I741" s="4"/>
+      <c r="J741" s="4"/>
+      <c r="O741" s="4"/>
+    </row>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C742" s="3"/>
+      <c r="E742" s="4"/>
+      <c r="I742" s="4"/>
+      <c r="J742" s="4"/>
+      <c r="O742" s="4"/>
+    </row>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C743" s="3"/>
+      <c r="E743" s="4"/>
+      <c r="I743" s="4"/>
+      <c r="J743" s="4"/>
+      <c r="O743" s="4"/>
+    </row>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C744" s="3"/>
+      <c r="E744" s="4"/>
+      <c r="I744" s="4"/>
+      <c r="J744" s="4"/>
+      <c r="O744" s="4"/>
+    </row>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C745" s="3"/>
+      <c r="E745" s="4"/>
+      <c r="I745" s="4"/>
+      <c r="J745" s="4"/>
+      <c r="O745" s="4"/>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C746" s="3"/>
+      <c r="E746" s="4"/>
+      <c r="I746" s="4"/>
+      <c r="J746" s="4"/>
+      <c r="O746" s="4"/>
+    </row>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C747" s="3"/>
+      <c r="E747" s="4"/>
+      <c r="I747" s="4"/>
+      <c r="J747" s="4"/>
+      <c r="O747" s="4"/>
+    </row>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C748" s="3"/>
+      <c r="E748" s="4"/>
+      <c r="I748" s="4"/>
+      <c r="J748" s="4"/>
+      <c r="O748" s="4"/>
+    </row>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C749" s="3"/>
+      <c r="E749" s="4"/>
+      <c r="I749" s="4"/>
+      <c r="J749" s="4"/>
+      <c r="O749" s="4"/>
+    </row>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C750" s="3"/>
+      <c r="E750" s="4"/>
+      <c r="I750" s="4"/>
+      <c r="J750" s="4"/>
+      <c r="O750" s="4"/>
+    </row>
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C751" s="3"/>
+      <c r="E751" s="4"/>
+      <c r="I751" s="4"/>
+      <c r="J751" s="4"/>
+      <c r="O751" s="4"/>
+    </row>
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C752" s="3"/>
+      <c r="E752" s="4"/>
+      <c r="I752" s="4"/>
+      <c r="J752" s="4"/>
+      <c r="O752" s="4"/>
+    </row>
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C753" s="3"/>
+      <c r="E753" s="4"/>
+      <c r="I753" s="4"/>
+      <c r="J753" s="4"/>
+      <c r="O753" s="4"/>
+    </row>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C754" s="3"/>
+      <c r="E754" s="4"/>
+      <c r="I754" s="4"/>
+      <c r="J754" s="4"/>
+      <c r="O754" s="4"/>
+    </row>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C755" s="3"/>
+      <c r="E755" s="4"/>
+      <c r="I755" s="4"/>
+      <c r="J755" s="4"/>
+      <c r="O755" s="4"/>
+    </row>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C756" s="3"/>
+      <c r="E756" s="4"/>
+      <c r="I756" s="4"/>
+      <c r="J756" s="4"/>
+      <c r="O756" s="4"/>
+    </row>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C757" s="3"/>
+      <c r="E757" s="4"/>
+      <c r="I757" s="4"/>
+      <c r="J757" s="4"/>
+      <c r="O757" s="4"/>
+    </row>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C758" s="3"/>
+      <c r="E758" s="4"/>
+      <c r="I758" s="4"/>
+      <c r="J758" s="4"/>
+      <c r="O758" s="4"/>
+    </row>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C759" s="3"/>
+      <c r="E759" s="4"/>
+      <c r="I759" s="4"/>
+      <c r="J759" s="4"/>
+      <c r="O759" s="4"/>
+    </row>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C760" s="3"/>
+      <c r="E760" s="4"/>
+      <c r="I760" s="4"/>
+      <c r="J760" s="4"/>
+      <c r="O760" s="4"/>
+    </row>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C761" s="3"/>
+      <c r="E761" s="4"/>
+      <c r="I761" s="4"/>
+      <c r="J761" s="4"/>
+      <c r="O761" s="4"/>
+    </row>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C762" s="3"/>
+      <c r="E762" s="4"/>
+      <c r="I762" s="4"/>
+      <c r="J762" s="4"/>
+      <c r="O762" s="4"/>
+    </row>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C763" s="3"/>
+      <c r="E763" s="4"/>
+      <c r="I763" s="4"/>
+      <c r="J763" s="4"/>
+      <c r="O763" s="4"/>
+    </row>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C764" s="3"/>
+      <c r="E764" s="4"/>
+      <c r="I764" s="4"/>
+      <c r="J764" s="4"/>
+      <c r="O764" s="4"/>
+    </row>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C765" s="3"/>
+      <c r="E765" s="4"/>
+      <c r="I765" s="4"/>
+      <c r="J765" s="4"/>
+      <c r="O765" s="4"/>
+    </row>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C766" s="3"/>
+      <c r="E766" s="4"/>
+      <c r="I766" s="4"/>
+      <c r="J766" s="4"/>
+      <c r="O766" s="4"/>
+    </row>
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C767" s="3"/>
+      <c r="E767" s="4"/>
+      <c r="I767" s="4"/>
+      <c r="J767" s="4"/>
+      <c r="O767" s="4"/>
+    </row>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C768" s="3"/>
+      <c r="E768" s="4"/>
+      <c r="I768" s="4"/>
+      <c r="J768" s="4"/>
+      <c r="O768" s="4"/>
+    </row>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C769" s="3"/>
+      <c r="E769" s="4"/>
+      <c r="I769" s="4"/>
+      <c r="J769" s="4"/>
+      <c r="O769" s="4"/>
+    </row>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C770" s="3"/>
+      <c r="E770" s="4"/>
+      <c r="I770" s="4"/>
+      <c r="J770" s="4"/>
+      <c r="O770" s="4"/>
+    </row>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C771" s="3"/>
+      <c r="E771" s="4"/>
+      <c r="I771" s="4"/>
+      <c r="J771" s="4"/>
+      <c r="O771" s="4"/>
+    </row>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C772" s="3"/>
+      <c r="E772" s="4"/>
+      <c r="I772" s="4"/>
+      <c r="J772" s="4"/>
+      <c r="O772" s="4"/>
+    </row>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C773" s="3"/>
+      <c r="E773" s="4"/>
+      <c r="I773" s="4"/>
+      <c r="J773" s="4"/>
+      <c r="O773" s="4"/>
+    </row>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C774" s="3"/>
+      <c r="E774" s="4"/>
+      <c r="I774" s="4"/>
+      <c r="J774" s="4"/>
+      <c r="O774" s="4"/>
+    </row>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C775" s="3"/>
+      <c r="E775" s="4"/>
+      <c r="I775" s="4"/>
+      <c r="J775" s="4"/>
+      <c r="O775" s="4"/>
+    </row>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C776" s="3"/>
+      <c r="E776" s="4"/>
+      <c r="I776" s="4"/>
+      <c r="J776" s="4"/>
+      <c r="O776" s="4"/>
+    </row>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C777" s="3"/>
+      <c r="E777" s="4"/>
+      <c r="I777" s="4"/>
+      <c r="J777" s="4"/>
+      <c r="O777" s="4"/>
+    </row>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C778" s="3"/>
+      <c r="E778" s="4"/>
+      <c r="I778" s="4"/>
+      <c r="J778" s="4"/>
+      <c r="O778" s="4"/>
+    </row>
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C779" s="3"/>
+      <c r="E779" s="4"/>
+      <c r="I779" s="4"/>
+      <c r="J779" s="4"/>
+      <c r="O779" s="4"/>
+    </row>
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C780" s="3"/>
+      <c r="E780" s="4"/>
+      <c r="I780" s="4"/>
+      <c r="J780" s="4"/>
+      <c r="O780" s="4"/>
+    </row>
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C781" s="3"/>
+      <c r="E781" s="4"/>
+      <c r="I781" s="4"/>
+      <c r="J781" s="4"/>
+      <c r="O781" s="4"/>
+    </row>
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C782" s="3"/>
+      <c r="E782" s="4"/>
+      <c r="I782" s="4"/>
+      <c r="J782" s="4"/>
+      <c r="O782" s="4"/>
+    </row>
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C783" s="3"/>
+      <c r="E783" s="4"/>
+      <c r="I783" s="4"/>
+      <c r="J783" s="4"/>
+      <c r="O783" s="4"/>
+    </row>
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C784" s="3"/>
+      <c r="E784" s="4"/>
+      <c r="I784" s="4"/>
+      <c r="J784" s="4"/>
+      <c r="O784" s="4"/>
+    </row>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C785" s="3"/>
+      <c r="E785" s="4"/>
+      <c r="I785" s="4"/>
+      <c r="J785" s="4"/>
+      <c r="O785" s="4"/>
+    </row>
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C786" s="3"/>
+      <c r="E786" s="4"/>
+      <c r="I786" s="4"/>
+      <c r="J786" s="4"/>
+      <c r="O786" s="4"/>
+    </row>
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C787" s="3"/>
+      <c r="E787" s="4"/>
+      <c r="I787" s="4"/>
+      <c r="J787" s="4"/>
+      <c r="O787" s="4"/>
+    </row>
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C788" s="3"/>
+      <c r="E788" s="4"/>
+      <c r="I788" s="4"/>
+      <c r="J788" s="4"/>
+      <c r="O788" s="4"/>
+    </row>
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C789" s="3"/>
+      <c r="E789" s="4"/>
+      <c r="I789" s="4"/>
+      <c r="J789" s="4"/>
+      <c r="O789" s="4"/>
+    </row>
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C790" s="3"/>
+      <c r="E790" s="4"/>
+      <c r="I790" s="4"/>
+      <c r="J790" s="4"/>
+      <c r="O790" s="4"/>
+    </row>
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C791" s="3"/>
+      <c r="E791" s="4"/>
+      <c r="I791" s="4"/>
+      <c r="J791" s="4"/>
+      <c r="O791" s="4"/>
+    </row>
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C792" s="3"/>
+      <c r="E792" s="4"/>
+      <c r="I792" s="4"/>
+      <c r="J792" s="4"/>
+      <c r="O792" s="4"/>
+    </row>
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C793" s="3"/>
+      <c r="E793" s="4"/>
+      <c r="I793" s="4"/>
+      <c r="J793" s="4"/>
+      <c r="O793" s="4"/>
+    </row>
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C794" s="3"/>
+      <c r="E794" s="4"/>
+      <c r="I794" s="4"/>
+      <c r="J794" s="4"/>
+      <c r="O794" s="4"/>
+    </row>
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C795" s="3"/>
+      <c r="E795" s="4"/>
+      <c r="I795" s="4"/>
+      <c r="J795" s="4"/>
+      <c r="O795" s="4"/>
+    </row>
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C796" s="3"/>
+      <c r="E796" s="4"/>
+      <c r="I796" s="4"/>
+      <c r="J796" s="4"/>
+      <c r="O796" s="4"/>
+    </row>
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C797" s="3"/>
+      <c r="E797" s="4"/>
+      <c r="I797" s="4"/>
+      <c r="J797" s="4"/>
+      <c r="O797" s="4"/>
+    </row>
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C798" s="3"/>
+      <c r="E798" s="4"/>
+      <c r="I798" s="4"/>
+      <c r="J798" s="4"/>
+      <c r="O798" s="4"/>
+    </row>
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C799" s="3"/>
+      <c r="E799" s="4"/>
+      <c r="I799" s="4"/>
+      <c r="J799" s="4"/>
+      <c r="O799" s="4"/>
+    </row>
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C800" s="3"/>
+      <c r="E800" s="4"/>
+      <c r="I800" s="4"/>
+      <c r="J800" s="4"/>
+      <c r="O800" s="4"/>
+    </row>
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C801" s="3"/>
+      <c r="E801" s="4"/>
+      <c r="I801" s="4"/>
+      <c r="J801" s="4"/>
+      <c r="O801" s="4"/>
+    </row>
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C802" s="3"/>
+      <c r="E802" s="4"/>
+      <c r="I802" s="4"/>
+      <c r="J802" s="4"/>
+      <c r="O802" s="4"/>
+    </row>
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C803" s="3"/>
+      <c r="E803" s="4"/>
+      <c r="I803" s="4"/>
+      <c r="J803" s="4"/>
+      <c r="O803" s="4"/>
+    </row>
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C804" s="3"/>
+      <c r="E804" s="4"/>
+      <c r="I804" s="4"/>
+      <c r="J804" s="4"/>
+      <c r="O804" s="4"/>
+    </row>
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C805" s="3"/>
+      <c r="E805" s="4"/>
+      <c r="I805" s="4"/>
+      <c r="J805" s="4"/>
+      <c r="O805" s="4"/>
+    </row>
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C806" s="3"/>
+      <c r="E806" s="4"/>
+      <c r="I806" s="4"/>
+      <c r="J806" s="4"/>
+      <c r="O806" s="4"/>
+    </row>
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C807" s="3"/>
+      <c r="E807" s="4"/>
+      <c r="I807" s="4"/>
+      <c r="J807" s="4"/>
+      <c r="O807" s="4"/>
+    </row>
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C808" s="3"/>
+      <c r="E808" s="4"/>
+      <c r="I808" s="4"/>
+      <c r="J808" s="4"/>
+      <c r="O808" s="4"/>
+    </row>
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C809" s="3"/>
+      <c r="E809" s="4"/>
+      <c r="I809" s="4"/>
+      <c r="J809" s="4"/>
+      <c r="O809" s="4"/>
+    </row>
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C810" s="3"/>
+      <c r="E810" s="4"/>
+      <c r="I810" s="4"/>
+      <c r="J810" s="4"/>
+      <c r="O810" s="4"/>
+    </row>
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C811" s="3"/>
+      <c r="E811" s="4"/>
+      <c r="I811" s="4"/>
+      <c r="J811" s="4"/>
+      <c r="O811" s="4"/>
+    </row>
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C812" s="3"/>
+      <c r="E812" s="4"/>
+      <c r="I812" s="4"/>
+      <c r="J812" s="4"/>
+      <c r="O812" s="4"/>
+    </row>
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C813" s="3"/>
+      <c r="E813" s="4"/>
+      <c r="I813" s="4"/>
+      <c r="J813" s="4"/>
+      <c r="O813" s="4"/>
+    </row>
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C814" s="3"/>
+      <c r="E814" s="4"/>
+      <c r="I814" s="4"/>
+      <c r="J814" s="4"/>
+      <c r="O814" s="4"/>
+    </row>
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C815" s="3"/>
+      <c r="E815" s="4"/>
+      <c r="I815" s="4"/>
+      <c r="J815" s="4"/>
+      <c r="O815" s="4"/>
+    </row>
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C816" s="3"/>
+      <c r="E816" s="4"/>
+      <c r="I816" s="4"/>
+      <c r="J816" s="4"/>
+      <c r="O816" s="4"/>
+    </row>
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C817" s="3"/>
+      <c r="E817" s="4"/>
+      <c r="I817" s="4"/>
+      <c r="J817" s="4"/>
+      <c r="O817" s="4"/>
+    </row>
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C818" s="3"/>
+      <c r="E818" s="4"/>
+      <c r="I818" s="4"/>
+      <c r="J818" s="4"/>
+      <c r="O818" s="4"/>
+    </row>
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C819" s="3"/>
+      <c r="E819" s="4"/>
+      <c r="I819" s="4"/>
+      <c r="J819" s="4"/>
+      <c r="O819" s="4"/>
+    </row>
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C820" s="3"/>
+      <c r="E820" s="4"/>
+      <c r="I820" s="4"/>
+      <c r="J820" s="4"/>
+      <c r="O820" s="4"/>
+    </row>
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C821" s="3"/>
+      <c r="E821" s="4"/>
+      <c r="I821" s="4"/>
+      <c r="J821" s="4"/>
+      <c r="O821" s="4"/>
+    </row>
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C822" s="3"/>
+      <c r="E822" s="4"/>
+      <c r="I822" s="4"/>
+      <c r="J822" s="4"/>
+      <c r="O822" s="4"/>
+    </row>
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C823" s="3"/>
+      <c r="E823" s="4"/>
+      <c r="I823" s="4"/>
+      <c r="J823" s="4"/>
+      <c r="O823" s="4"/>
+    </row>
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C824" s="3"/>
+      <c r="E824" s="4"/>
+      <c r="I824" s="4"/>
+      <c r="J824" s="4"/>
+      <c r="O824" s="4"/>
+    </row>
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C825" s="3"/>
+      <c r="E825" s="4"/>
+      <c r="I825" s="4"/>
+      <c r="J825" s="4"/>
+      <c r="O825" s="4"/>
+    </row>
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C826" s="3"/>
+      <c r="E826" s="4"/>
+      <c r="I826" s="4"/>
+      <c r="J826" s="4"/>
+      <c r="O826" s="4"/>
+    </row>
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C827" s="3"/>
+      <c r="E827" s="4"/>
+      <c r="I827" s="4"/>
+      <c r="J827" s="4"/>
+      <c r="O827" s="4"/>
+    </row>
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C828" s="3"/>
+      <c r="E828" s="4"/>
+      <c r="I828" s="4"/>
+      <c r="J828" s="4"/>
+      <c r="O828" s="4"/>
+    </row>
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C829" s="3"/>
+      <c r="E829" s="4"/>
+      <c r="I829" s="4"/>
+      <c r="J829" s="4"/>
+      <c r="O829" s="4"/>
+    </row>
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C830" s="3"/>
+      <c r="E830" s="4"/>
+      <c r="I830" s="4"/>
+      <c r="J830" s="4"/>
+      <c r="O830" s="4"/>
+    </row>
+    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C831" s="3"/>
+      <c r="E831" s="4"/>
+      <c r="I831" s="4"/>
+      <c r="J831" s="4"/>
+      <c r="O831" s="4"/>
+    </row>
+    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C832" s="3"/>
+      <c r="E832" s="4"/>
+      <c r="I832" s="4"/>
+      <c r="J832" s="4"/>
+      <c r="O832" s="4"/>
+    </row>
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C833" s="3"/>
+      <c r="E833" s="4"/>
+      <c r="I833" s="4"/>
+      <c r="J833" s="4"/>
+      <c r="O833" s="4"/>
+    </row>
+    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C834" s="3"/>
+      <c r="E834" s="4"/>
+      <c r="I834" s="4"/>
+      <c r="J834" s="4"/>
+      <c r="O834" s="4"/>
+    </row>
+    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C835" s="3"/>
+      <c r="E835" s="4"/>
+      <c r="I835" s="4"/>
+      <c r="J835" s="4"/>
+      <c r="O835" s="4"/>
+    </row>
+    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C836" s="3"/>
+      <c r="E836" s="4"/>
+      <c r="I836" s="4"/>
+      <c r="J836" s="4"/>
+      <c r="O836" s="4"/>
+    </row>
+    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C837" s="3"/>
+      <c r="E837" s="4"/>
+      <c r="I837" s="4"/>
+      <c r="J837" s="4"/>
+      <c r="O837" s="4"/>
+    </row>
+    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C838" s="3"/>
+      <c r="E838" s="4"/>
+      <c r="I838" s="4"/>
+      <c r="J838" s="4"/>
+      <c r="O838" s="4"/>
+    </row>
+    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C839" s="3"/>
+      <c r="E839" s="4"/>
+      <c r="I839" s="4"/>
+      <c r="J839" s="4"/>
+      <c r="O839" s="4"/>
+    </row>
+    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C840" s="3"/>
+      <c r="E840" s="4"/>
+      <c r="I840" s="4"/>
+      <c r="J840" s="4"/>
+      <c r="O840" s="4"/>
+    </row>
+    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C841" s="3"/>
+      <c r="E841" s="4"/>
+      <c r="I841" s="4"/>
+      <c r="J841" s="4"/>
+      <c r="O841" s="4"/>
+    </row>
+    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C842" s="3"/>
+      <c r="E842" s="4"/>
+      <c r="I842" s="4"/>
+      <c r="J842" s="4"/>
+      <c r="O842" s="4"/>
+    </row>
+    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C843" s="3"/>
+      <c r="E843" s="4"/>
+      <c r="I843" s="4"/>
+      <c r="J843" s="4"/>
+      <c r="O843" s="4"/>
+    </row>
+    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C844" s="3"/>
+      <c r="E844" s="4"/>
+      <c r="I844" s="4"/>
+      <c r="J844" s="4"/>
+      <c r="O844" s="4"/>
+    </row>
+    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C845" s="3"/>
+      <c r="E845" s="4"/>
+      <c r="I845" s="4"/>
+      <c r="J845" s="4"/>
+      <c r="O845" s="4"/>
+    </row>
+    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C846" s="3"/>
+      <c r="E846" s="4"/>
+      <c r="I846" s="4"/>
+      <c r="J846" s="4"/>
+      <c r="O846" s="4"/>
+    </row>
+    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C847" s="3"/>
+      <c r="E847" s="4"/>
+      <c r="I847" s="4"/>
+      <c r="J847" s="4"/>
+      <c r="O847" s="4"/>
+    </row>
+    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C848" s="3"/>
+      <c r="E848" s="4"/>
+      <c r="I848" s="4"/>
+      <c r="J848" s="4"/>
+      <c r="O848" s="4"/>
+    </row>
+    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C849" s="3"/>
+      <c r="E849" s="4"/>
+      <c r="I849" s="4"/>
+      <c r="J849" s="4"/>
+      <c r="O849" s="4"/>
+    </row>
+    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C850" s="3"/>
+      <c r="E850" s="4"/>
+      <c r="I850" s="4"/>
+      <c r="J850" s="4"/>
+      <c r="O850" s="4"/>
+    </row>
+    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C851" s="3"/>
+      <c r="E851" s="4"/>
+      <c r="I851" s="4"/>
+      <c r="J851" s="4"/>
+      <c r="O851" s="4"/>
+    </row>
+    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C852" s="3"/>
+      <c r="E852" s="4"/>
+      <c r="I852" s="4"/>
+      <c r="J852" s="4"/>
+      <c r="O852" s="4"/>
+    </row>
+    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C853" s="3"/>
+      <c r="E853" s="4"/>
+      <c r="I853" s="4"/>
+      <c r="J853" s="4"/>
+      <c r="O853" s="4"/>
+    </row>
+    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C854" s="3"/>
+      <c r="E854" s="4"/>
+      <c r="I854" s="4"/>
+      <c r="J854" s="4"/>
+      <c r="O854" s="4"/>
+    </row>
+    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C855" s="3"/>
+      <c r="E855" s="4"/>
+      <c r="I855" s="4"/>
+      <c r="J855" s="4"/>
+      <c r="O855" s="4"/>
+    </row>
+    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C856" s="3"/>
+      <c r="E856" s="4"/>
+      <c r="I856" s="4"/>
+      <c r="J856" s="4"/>
+      <c r="O856" s="4"/>
+    </row>
+    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C857" s="3"/>
+      <c r="E857" s="4"/>
+      <c r="I857" s="4"/>
+      <c r="J857" s="4"/>
+      <c r="O857" s="4"/>
+    </row>
+    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C858" s="3"/>
+      <c r="E858" s="4"/>
+      <c r="I858" s="4"/>
+      <c r="J858" s="4"/>
+      <c r="O858" s="4"/>
+    </row>
+    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C859" s="3"/>
+      <c r="E859" s="4"/>
+      <c r="I859" s="4"/>
+      <c r="J859" s="4"/>
+      <c r="O859" s="4"/>
+    </row>
+    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C860" s="3"/>
+      <c r="E860" s="4"/>
+      <c r="I860" s="4"/>
+      <c r="J860" s="4"/>
+      <c r="O860" s="4"/>
+    </row>
+    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C861" s="3"/>
+      <c r="E861" s="4"/>
+      <c r="I861" s="4"/>
+      <c r="J861" s="4"/>
+      <c r="O861" s="4"/>
+    </row>
+    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C862" s="3"/>
+      <c r="E862" s="4"/>
+      <c r="I862" s="4"/>
+      <c r="J862" s="4"/>
+      <c r="O862" s="4"/>
+    </row>
+    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C863" s="3"/>
+      <c r="E863" s="4"/>
+      <c r="I863" s="4"/>
+      <c r="J863" s="4"/>
+      <c r="O863" s="4"/>
+    </row>
+    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C864" s="3"/>
+      <c r="E864" s="4"/>
+      <c r="I864" s="4"/>
+      <c r="J864" s="4"/>
+      <c r="O864" s="4"/>
+    </row>
+    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C865" s="3"/>
+      <c r="E865" s="4"/>
+      <c r="I865" s="4"/>
+      <c r="J865" s="4"/>
+      <c r="O865" s="4"/>
+    </row>
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C866" s="3"/>
+      <c r="E866" s="4"/>
+      <c r="I866" s="4"/>
+      <c r="J866" s="4"/>
+      <c r="O866" s="4"/>
+    </row>
+    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C867" s="3"/>
+      <c r="E867" s="4"/>
+      <c r="I867" s="4"/>
+      <c r="J867" s="4"/>
+      <c r="O867" s="4"/>
+    </row>
+    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C868" s="3"/>
+      <c r="E868" s="4"/>
+      <c r="I868" s="4"/>
+      <c r="J868" s="4"/>
+      <c r="O868" s="4"/>
+    </row>
+    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C869" s="3"/>
+      <c r="E869" s="4"/>
+      <c r="I869" s="4"/>
+      <c r="J869" s="4"/>
+      <c r="O869" s="4"/>
+    </row>
+    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C870" s="3"/>
+      <c r="E870" s="4"/>
+      <c r="I870" s="4"/>
+      <c r="J870" s="4"/>
+      <c r="O870" s="4"/>
+    </row>
+    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C871" s="3"/>
+      <c r="E871" s="4"/>
+      <c r="I871" s="4"/>
+      <c r="J871" s="4"/>
+      <c r="O871" s="4"/>
+    </row>
+    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C872" s="3"/>
+      <c r="E872" s="4"/>
+      <c r="I872" s="4"/>
+      <c r="J872" s="4"/>
+      <c r="O872" s="4"/>
+    </row>
+    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C873" s="3"/>
+      <c r="E873" s="4"/>
+      <c r="I873" s="4"/>
+      <c r="J873" s="4"/>
+      <c r="O873" s="4"/>
+    </row>
+    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C874" s="3"/>
+      <c r="E874" s="4"/>
+      <c r="I874" s="4"/>
+      <c r="J874" s="4"/>
+      <c r="O874" s="4"/>
+    </row>
+    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C875" s="3"/>
+      <c r="E875" s="4"/>
+      <c r="I875" s="4"/>
+      <c r="J875" s="4"/>
+      <c r="O875" s="4"/>
+    </row>
+    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C876" s="3"/>
+      <c r="E876" s="4"/>
+      <c r="I876" s="4"/>
+      <c r="J876" s="4"/>
+      <c r="O876" s="4"/>
+    </row>
+    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C877" s="3"/>
+      <c r="E877" s="4"/>
+      <c r="I877" s="4"/>
+      <c r="J877" s="4"/>
+      <c r="O877" s="4"/>
+    </row>
+    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C878" s="3"/>
+      <c r="E878" s="4"/>
+      <c r="I878" s="4"/>
+      <c r="J878" s="4"/>
+      <c r="O878" s="4"/>
+    </row>
+    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C879" s="3"/>
+      <c r="E879" s="4"/>
+      <c r="I879" s="4"/>
+      <c r="J879" s="4"/>
+      <c r="O879" s="4"/>
+    </row>
+    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C880" s="3"/>
+      <c r="E880" s="4"/>
+      <c r="I880" s="4"/>
+      <c r="J880" s="4"/>
+      <c r="O880" s="4"/>
+    </row>
+    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C881" s="3"/>
+      <c r="E881" s="4"/>
+      <c r="I881" s="4"/>
+      <c r="J881" s="4"/>
+      <c r="O881" s="4"/>
+    </row>
+    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C882" s="3"/>
+      <c r="E882" s="4"/>
+      <c r="I882" s="4"/>
+      <c r="J882" s="4"/>
+      <c r="O882" s="4"/>
+    </row>
+    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C883" s="3"/>
+      <c r="E883" s="4"/>
+      <c r="I883" s="4"/>
+      <c r="J883" s="4"/>
+      <c r="O883" s="4"/>
+    </row>
+    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C884" s="3"/>
+      <c r="E884" s="4"/>
+      <c r="I884" s="4"/>
+      <c r="J884" s="4"/>
+      <c r="O884" s="4"/>
+    </row>
+    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C885" s="3"/>
+      <c r="E885" s="4"/>
+      <c r="I885" s="4"/>
+      <c r="J885" s="4"/>
+      <c r="O885" s="4"/>
+    </row>
+    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C886" s="3"/>
+      <c r="E886" s="4"/>
+      <c r="I886" s="4"/>
+      <c r="J886" s="4"/>
+      <c r="O886" s="4"/>
+    </row>
+    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C887" s="3"/>
+      <c r="E887" s="4"/>
+      <c r="I887" s="4"/>
+      <c r="J887" s="4"/>
+      <c r="O887" s="4"/>
+    </row>
+    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C888" s="3"/>
+      <c r="E888" s="4"/>
+      <c r="I888" s="4"/>
+      <c r="J888" s="4"/>
+      <c r="O888" s="4"/>
+    </row>
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C889" s="3"/>
+      <c r="E889" s="4"/>
+      <c r="I889" s="4"/>
+      <c r="J889" s="4"/>
+      <c r="O889" s="4"/>
+    </row>
+    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C890" s="3"/>
+      <c r="E890" s="4"/>
+      <c r="I890" s="4"/>
+      <c r="J890" s="4"/>
+      <c r="O890" s="4"/>
+    </row>
+    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C891" s="3"/>
+      <c r="E891" s="4"/>
+      <c r="I891" s="4"/>
+      <c r="J891" s="4"/>
+      <c r="O891" s="4"/>
+    </row>
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C892" s="3"/>
+      <c r="E892" s="4"/>
+      <c r="I892" s="4"/>
+      <c r="J892" s="4"/>
+      <c r="O892" s="4"/>
+    </row>
+    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C893" s="3"/>
+      <c r="E893" s="4"/>
+      <c r="I893" s="4"/>
+      <c r="J893" s="4"/>
+      <c r="O893" s="4"/>
+    </row>
+    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C894" s="3"/>
+      <c r="E894" s="4"/>
+      <c r="I894" s="4"/>
+      <c r="J894" s="4"/>
+      <c r="O894" s="4"/>
+    </row>
+    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C895" s="3"/>
+      <c r="E895" s="4"/>
+      <c r="I895" s="4"/>
+      <c r="J895" s="4"/>
+      <c r="O895" s="4"/>
+    </row>
+    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C896" s="3"/>
+      <c r="E896" s="4"/>
+      <c r="I896" s="4"/>
+      <c r="J896" s="4"/>
+      <c r="O896" s="4"/>
+    </row>
+    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C897" s="3"/>
+      <c r="E897" s="4"/>
+      <c r="I897" s="4"/>
+      <c r="J897" s="4"/>
+      <c r="O897" s="4"/>
+    </row>
+    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C898" s="3"/>
+      <c r="E898" s="4"/>
+      <c r="I898" s="4"/>
+      <c r="J898" s="4"/>
+      <c r="O898" s="4"/>
+    </row>
+    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C899" s="3"/>
+      <c r="E899" s="4"/>
+      <c r="I899" s="4"/>
+      <c r="J899" s="4"/>
+      <c r="O899" s="4"/>
+    </row>
+    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C900" s="3"/>
+      <c r="E900" s="4"/>
+      <c r="I900" s="4"/>
+      <c r="J900" s="4"/>
+      <c r="O900" s="4"/>
+    </row>
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C901" s="3"/>
+      <c r="E901" s="4"/>
+      <c r="I901" s="4"/>
+      <c r="J901" s="4"/>
+      <c r="O901" s="4"/>
+    </row>
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C902" s="3"/>
+      <c r="E902" s="4"/>
+      <c r="I902" s="4"/>
+      <c r="J902" s="4"/>
+      <c r="O902" s="4"/>
+    </row>
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C903" s="3"/>
+      <c r="E903" s="4"/>
+      <c r="I903" s="4"/>
+      <c r="J903" s="4"/>
+      <c r="O903" s="4"/>
+    </row>
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C904" s="3"/>
+      <c r="E904" s="4"/>
+      <c r="I904" s="4"/>
+      <c r="J904" s="4"/>
+      <c r="O904" s="4"/>
+    </row>
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C905" s="3"/>
+      <c r="E905" s="4"/>
+      <c r="I905" s="4"/>
+      <c r="J905" s="4"/>
+      <c r="O905" s="4"/>
+    </row>
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C906" s="3"/>
+      <c r="E906" s="4"/>
+      <c r="I906" s="4"/>
+      <c r="J906" s="4"/>
+      <c r="O906" s="4"/>
+    </row>
+    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C907" s="3"/>
+      <c r="E907" s="4"/>
+      <c r="I907" s="4"/>
+      <c r="J907" s="4"/>
+      <c r="O907" s="4"/>
+    </row>
+    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C908" s="3"/>
+      <c r="E908" s="4"/>
+      <c r="I908" s="4"/>
+      <c r="J908" s="4"/>
+      <c r="O908" s="4"/>
+    </row>
+    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C909" s="3"/>
+      <c r="E909" s="4"/>
+      <c r="I909" s="4"/>
+      <c r="J909" s="4"/>
+      <c r="O909" s="4"/>
+    </row>
+    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C910" s="3"/>
+      <c r="E910" s="4"/>
+      <c r="I910" s="4"/>
+      <c r="J910" s="4"/>
+      <c r="O910" s="4"/>
+    </row>
+    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C911" s="3"/>
+      <c r="E911" s="4"/>
+      <c r="I911" s="4"/>
+      <c r="J911" s="4"/>
+      <c r="O911" s="4"/>
+    </row>
+    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C912" s="3"/>
+      <c r="E912" s="4"/>
+      <c r="I912" s="4"/>
+      <c r="J912" s="4"/>
+      <c r="O912" s="4"/>
+    </row>
+    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C913" s="3"/>
+      <c r="E913" s="4"/>
+      <c r="I913" s="4"/>
+      <c r="J913" s="4"/>
+      <c r="O913" s="4"/>
+    </row>
+    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C914" s="3"/>
+      <c r="E914" s="4"/>
+      <c r="I914" s="4"/>
+      <c r="J914" s="4"/>
+      <c r="O914" s="4"/>
+    </row>
+    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C915" s="3"/>
+      <c r="E915" s="4"/>
+      <c r="I915" s="4"/>
+      <c r="J915" s="4"/>
+      <c r="O915" s="4"/>
+    </row>
+    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C916" s="3"/>
+      <c r="E916" s="4"/>
+      <c r="I916" s="4"/>
+      <c r="J916" s="4"/>
+      <c r="O916" s="4"/>
+    </row>
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C917" s="3"/>
+      <c r="E917" s="4"/>
+      <c r="I917" s="4"/>
+      <c r="J917" s="4"/>
+      <c r="O917" s="4"/>
+    </row>
+    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C918" s="3"/>
+      <c r="E918" s="4"/>
+      <c r="I918" s="4"/>
+      <c r="J918" s="4"/>
+      <c r="O918" s="4"/>
+    </row>
+    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C919" s="3"/>
+      <c r="E919" s="4"/>
+      <c r="I919" s="4"/>
+      <c r="J919" s="4"/>
+      <c r="O919" s="4"/>
+    </row>
+    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C920" s="3"/>
+      <c r="E920" s="4"/>
+      <c r="I920" s="4"/>
+      <c r="J920" s="4"/>
+      <c r="O920" s="4"/>
+    </row>
+    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C921" s="3"/>
+      <c r="E921" s="4"/>
+      <c r="I921" s="4"/>
+      <c r="J921" s="4"/>
+      <c r="O921" s="4"/>
+    </row>
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C922" s="3"/>
+      <c r="E922" s="4"/>
+      <c r="I922" s="4"/>
+      <c r="J922" s="4"/>
+      <c r="O922" s="4"/>
+    </row>
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C923" s="3"/>
+      <c r="E923" s="4"/>
+      <c r="I923" s="4"/>
+      <c r="J923" s="4"/>
+      <c r="O923" s="4"/>
+    </row>
+    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C924" s="3"/>
+      <c r="E924" s="4"/>
+      <c r="I924" s="4"/>
+      <c r="J924" s="4"/>
+      <c r="O924" s="4"/>
+    </row>
+    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C925" s="3"/>
+      <c r="E925" s="4"/>
+      <c r="I925" s="4"/>
+      <c r="J925" s="4"/>
+      <c r="O925" s="4"/>
+    </row>
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C926" s="3"/>
+      <c r="E926" s="4"/>
+      <c r="I926" s="4"/>
+      <c r="J926" s="4"/>
+      <c r="O926" s="4"/>
+    </row>
+    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C927" s="3"/>
+      <c r="E927" s="4"/>
+      <c r="I927" s="4"/>
+      <c r="J927" s="4"/>
+      <c r="O927" s="4"/>
+    </row>
+    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C928" s="3"/>
+      <c r="E928" s="4"/>
+      <c r="I928" s="4"/>
+      <c r="J928" s="4"/>
+      <c r="O928" s="4"/>
+    </row>
+    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C929" s="3"/>
+      <c r="E929" s="4"/>
+      <c r="I929" s="4"/>
+      <c r="J929" s="4"/>
+      <c r="O929" s="4"/>
+    </row>
+    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C930" s="3"/>
+      <c r="E930" s="4"/>
+      <c r="I930" s="4"/>
+      <c r="J930" s="4"/>
+      <c r="O930" s="4"/>
+    </row>
+    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C931" s="3"/>
+      <c r="E931" s="4"/>
+      <c r="I931" s="4"/>
+      <c r="J931" s="4"/>
+      <c r="O931" s="4"/>
+    </row>
+    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C932" s="3"/>
+      <c r="E932" s="4"/>
+      <c r="I932" s="4"/>
+      <c r="J932" s="4"/>
+      <c r="O932" s="4"/>
+    </row>
+    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C933" s="3"/>
+      <c r="E933" s="4"/>
+      <c r="I933" s="4"/>
+      <c r="J933" s="4"/>
+      <c r="O933" s="4"/>
+    </row>
+    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C934" s="3"/>
+      <c r="E934" s="4"/>
+      <c r="I934" s="4"/>
+      <c r="J934" s="4"/>
+      <c r="O934" s="4"/>
+    </row>
+    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C935" s="3"/>
+      <c r="E935" s="4"/>
+      <c r="I935" s="4"/>
+      <c r="J935" s="4"/>
+      <c r="O935" s="4"/>
+    </row>
+    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C936" s="3"/>
+      <c r="E936" s="4"/>
+      <c r="I936" s="4"/>
+      <c r="J936" s="4"/>
+      <c r="O936" s="4"/>
+    </row>
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C937" s="3"/>
+      <c r="E937" s="4"/>
+      <c r="I937" s="4"/>
+      <c r="J937" s="4"/>
+      <c r="O937" s="4"/>
+    </row>
+    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C938" s="3"/>
+      <c r="E938" s="4"/>
+      <c r="I938" s="4"/>
+      <c r="J938" s="4"/>
+      <c r="O938" s="4"/>
+    </row>
+    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C939" s="3"/>
+      <c r="E939" s="4"/>
+      <c r="I939" s="4"/>
+      <c r="J939" s="4"/>
+      <c r="O939" s="4"/>
+    </row>
+    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C940" s="3"/>
+      <c r="E940" s="4"/>
+      <c r="I940" s="4"/>
+      <c r="J940" s="4"/>
+      <c r="O940" s="4"/>
+    </row>
+    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C941" s="3"/>
+      <c r="E941" s="4"/>
+      <c r="I941" s="4"/>
+      <c r="J941" s="4"/>
+      <c r="O941" s="4"/>
+    </row>
+    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C942" s="3"/>
+      <c r="E942" s="4"/>
+      <c r="I942" s="4"/>
+      <c r="J942" s="4"/>
+      <c r="O942" s="4"/>
+    </row>
+    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C943" s="3"/>
+      <c r="E943" s="4"/>
+      <c r="I943" s="4"/>
+      <c r="J943" s="4"/>
+      <c r="O943" s="4"/>
+    </row>
+    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C944" s="3"/>
+      <c r="E944" s="4"/>
+      <c r="I944" s="4"/>
+      <c r="J944" s="4"/>
+      <c r="O944" s="4"/>
+    </row>
+    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C945" s="3"/>
+      <c r="E945" s="4"/>
+      <c r="I945" s="4"/>
+      <c r="J945" s="4"/>
+      <c r="O945" s="4"/>
+    </row>
+    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C946" s="3"/>
+      <c r="E946" s="4"/>
+      <c r="I946" s="4"/>
+      <c r="J946" s="4"/>
+      <c r="O946" s="4"/>
+    </row>
+    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C947" s="3"/>
+      <c r="E947" s="4"/>
+      <c r="I947" s="4"/>
+      <c r="J947" s="4"/>
+      <c r="O947" s="4"/>
+    </row>
+    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C948" s="3"/>
+      <c r="E948" s="4"/>
+      <c r="I948" s="4"/>
+      <c r="J948" s="4"/>
+      <c r="O948" s="4"/>
+    </row>
+    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C949" s="3"/>
+      <c r="E949" s="4"/>
+      <c r="I949" s="4"/>
+      <c r="J949" s="4"/>
+      <c r="O949" s="4"/>
+    </row>
+    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C950" s="3"/>
+      <c r="E950" s="4"/>
+      <c r="I950" s="4"/>
+      <c r="J950" s="4"/>
+      <c r="O950" s="4"/>
+    </row>
+    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C951" s="3"/>
+      <c r="E951" s="4"/>
+      <c r="I951" s="4"/>
+      <c r="J951" s="4"/>
+      <c r="O951" s="4"/>
+    </row>
+    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C952" s="3"/>
+      <c r="E952" s="4"/>
+      <c r="I952" s="4"/>
+      <c r="J952" s="4"/>
+      <c r="O952" s="4"/>
+    </row>
+    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C953" s="3"/>
+      <c r="E953" s="4"/>
+      <c r="I953" s="4"/>
+      <c r="J953" s="4"/>
+      <c r="O953" s="4"/>
+    </row>
+    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C954" s="3"/>
+      <c r="E954" s="4"/>
+      <c r="I954" s="4"/>
+      <c r="J954" s="4"/>
+      <c r="O954" s="4"/>
+    </row>
+    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C955" s="3"/>
+      <c r="E955" s="4"/>
+      <c r="I955" s="4"/>
+      <c r="J955" s="4"/>
+      <c r="O955" s="4"/>
+    </row>
+    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C956" s="3"/>
+      <c r="E956" s="4"/>
+      <c r="I956" s="4"/>
+      <c r="J956" s="4"/>
+      <c r="O956" s="4"/>
+    </row>
+    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C957" s="3"/>
+      <c r="E957" s="4"/>
+      <c r="I957" s="4"/>
+      <c r="J957" s="4"/>
+      <c r="O957" s="4"/>
+    </row>
+    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C958" s="3"/>
+      <c r="E958" s="4"/>
+      <c r="I958" s="4"/>
+      <c r="J958" s="4"/>
+      <c r="O958" s="4"/>
+    </row>
+    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C959" s="3"/>
+      <c r="E959" s="4"/>
+      <c r="I959" s="4"/>
+      <c r="J959" s="4"/>
+      <c r="O959" s="4"/>
+    </row>
+    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C960" s="3"/>
+      <c r="E960" s="4"/>
+      <c r="I960" s="4"/>
+      <c r="J960" s="4"/>
+      <c r="O960" s="4"/>
+    </row>
+    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C961" s="3"/>
+      <c r="E961" s="4"/>
+      <c r="I961" s="4"/>
+      <c r="J961" s="4"/>
+      <c r="O961" s="4"/>
+    </row>
+    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C962" s="3"/>
+      <c r="E962" s="4"/>
+      <c r="I962" s="4"/>
+      <c r="J962" s="4"/>
+      <c r="O962" s="4"/>
+    </row>
+    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C963" s="3"/>
+      <c r="E963" s="4"/>
+      <c r="I963" s="4"/>
+      <c r="J963" s="4"/>
+      <c r="O963" s="4"/>
+    </row>
+    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C964" s="3"/>
+      <c r="E964" s="4"/>
+      <c r="I964" s="4"/>
+      <c r="J964" s="4"/>
+      <c r="O964" s="4"/>
+    </row>
+    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C965" s="3"/>
+      <c r="E965" s="4"/>
+      <c r="I965" s="4"/>
+      <c r="J965" s="4"/>
+      <c r="O965" s="4"/>
+    </row>
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C966" s="3"/>
+      <c r="E966" s="4"/>
+      <c r="I966" s="4"/>
+      <c r="J966" s="4"/>
+      <c r="O966" s="4"/>
+    </row>
+    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C967" s="3"/>
+      <c r="E967" s="4"/>
+      <c r="I967" s="4"/>
+      <c r="J967" s="4"/>
+      <c r="O967" s="4"/>
+    </row>
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C968" s="3"/>
+      <c r="E968" s="4"/>
+      <c r="I968" s="4"/>
+      <c r="J968" s="4"/>
+      <c r="O968" s="4"/>
+    </row>
+    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C969" s="3"/>
+      <c r="E969" s="4"/>
+      <c r="I969" s="4"/>
+      <c r="J969" s="4"/>
+      <c r="O969" s="4"/>
+    </row>
+    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C970" s="3"/>
+      <c r="E970" s="4"/>
+      <c r="I970" s="4"/>
+      <c r="J970" s="4"/>
+      <c r="O970" s="4"/>
+    </row>
+    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C971" s="3"/>
+      <c r="E971" s="4"/>
+      <c r="I971" s="4"/>
+      <c r="J971" s="4"/>
+      <c r="O971" s="4"/>
+    </row>
+    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C972" s="3"/>
+      <c r="E972" s="4"/>
+      <c r="I972" s="4"/>
+      <c r="J972" s="4"/>
+      <c r="O972" s="4"/>
+    </row>
+    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C973" s="3"/>
+      <c r="E973" s="4"/>
+      <c r="I973" s="4"/>
+      <c r="J973" s="4"/>
+      <c r="O973" s="4"/>
+    </row>
+    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C974" s="3"/>
+      <c r="E974" s="4"/>
+      <c r="I974" s="4"/>
+      <c r="J974" s="4"/>
+      <c r="O974" s="4"/>
+    </row>
+    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C975" s="3"/>
+      <c r="E975" s="4"/>
+      <c r="I975" s="4"/>
+      <c r="J975" s="4"/>
+      <c r="O975" s="4"/>
+    </row>
+    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C976" s="3"/>
+      <c r="E976" s="4"/>
+      <c r="I976" s="4"/>
+      <c r="J976" s="4"/>
+      <c r="O976" s="4"/>
+    </row>
+    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C977" s="3"/>
+      <c r="E977" s="4"/>
+      <c r="I977" s="4"/>
+      <c r="J977" s="4"/>
+      <c r="O977" s="4"/>
+    </row>
+    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C978" s="3"/>
+      <c r="E978" s="4"/>
+      <c r="I978" s="4"/>
+      <c r="J978" s="4"/>
+      <c r="O978" s="4"/>
+    </row>
+    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C979" s="3"/>
+      <c r="E979" s="4"/>
+      <c r="I979" s="4"/>
+      <c r="J979" s="4"/>
+      <c r="O979" s="4"/>
+    </row>
+    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C980" s="3"/>
+      <c r="E980" s="4"/>
+      <c r="I980" s="4"/>
+      <c r="J980" s="4"/>
+      <c r="O980" s="4"/>
+    </row>
+    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C981" s="3"/>
+      <c r="E981" s="4"/>
+      <c r="I981" s="4"/>
+      <c r="J981" s="4"/>
+      <c r="O981" s="4"/>
+    </row>
+    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C982" s="3"/>
+      <c r="E982" s="4"/>
+      <c r="I982" s="4"/>
+      <c r="J982" s="4"/>
+      <c r="O982" s="4"/>
+    </row>
+    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C983" s="3"/>
+      <c r="E983" s="4"/>
+      <c r="I983" s="4"/>
+      <c r="J983" s="4"/>
+      <c r="O983" s="4"/>
+    </row>
+    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C984" s="3"/>
+      <c r="E984" s="4"/>
+      <c r="I984" s="4"/>
+      <c r="J984" s="4"/>
+      <c r="O984" s="4"/>
+    </row>
+    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C985" s="3"/>
+      <c r="E985" s="4"/>
+      <c r="I985" s="4"/>
+      <c r="J985" s="4"/>
+      <c r="O985" s="4"/>
+    </row>
+    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C986" s="3"/>
+      <c r="E986" s="4"/>
+      <c r="I986" s="4"/>
+      <c r="J986" s="4"/>
+      <c r="O986" s="4"/>
+    </row>
+    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C987" s="3"/>
+      <c r="E987" s="4"/>
+      <c r="I987" s="4"/>
+      <c r="J987" s="4"/>
+      <c r="O987" s="4"/>
+    </row>
+    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C988" s="3"/>
+      <c r="E988" s="4"/>
+      <c r="I988" s="4"/>
+      <c r="J988" s="4"/>
+      <c r="O988" s="4"/>
+    </row>
+    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C989" s="3"/>
+      <c r="E989" s="4"/>
+      <c r="I989" s="4"/>
+      <c r="J989" s="4"/>
+      <c r="O989" s="4"/>
+    </row>
+    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C990" s="3"/>
+      <c r="E990" s="4"/>
+      <c r="I990" s="4"/>
+      <c r="J990" s="4"/>
+      <c r="O990" s="4"/>
+    </row>
+    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C991" s="3"/>
+      <c r="E991" s="4"/>
+      <c r="I991" s="4"/>
+      <c r="J991" s="4"/>
+      <c r="O991" s="4"/>
+    </row>
+    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C992" s="3"/>
+      <c r="E992" s="4"/>
+      <c r="I992" s="4"/>
+      <c r="J992" s="4"/>
+      <c r="O992" s="4"/>
+    </row>
+    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C993" s="3"/>
+      <c r="E993" s="4"/>
+      <c r="I993" s="4"/>
+      <c r="J993" s="4"/>
+      <c r="O993" s="4"/>
+    </row>
+    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C994" s="3"/>
+      <c r="E994" s="4"/>
+      <c r="I994" s="4"/>
+      <c r="J994" s="4"/>
+      <c r="O994" s="4"/>
+    </row>
+    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C995" s="3"/>
+      <c r="E995" s="4"/>
+      <c r="I995" s="4"/>
+      <c r="J995" s="4"/>
+      <c r="O995" s="4"/>
+    </row>
+    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C996" s="3"/>
+      <c r="E996" s="4"/>
+      <c r="I996" s="4"/>
+      <c r="J996" s="4"/>
+      <c r="O996" s="4"/>
+    </row>
+    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C997" s="3"/>
+      <c r="E997" s="4"/>
+      <c r="I997" s="4"/>
+      <c r="J997" s="4"/>
+      <c r="O997" s="4"/>
+    </row>
+    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C998" s="3"/>
+      <c r="E998" s="4"/>
+      <c r="I998" s="4"/>
+      <c r="J998" s="4"/>
+      <c r="O998" s="4"/>
+    </row>
+    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C999" s="3"/>
+      <c r="E999" s="4"/>
+      <c r="I999" s="4"/>
+      <c r="J999" s="4"/>
+      <c r="O999" s="4"/>
+    </row>
+    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1000" s="3"/>
+      <c r="E1000" s="4"/>
+      <c r="I1000" s="4"/>
+      <c r="J1000" s="4"/>
+      <c r="O1000" s="4"/>
+    </row>
+    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1001" s="3"/>
+      <c r="E1001" s="4"/>
+      <c r="I1001" s="4"/>
+      <c r="J1001" s="4"/>
+      <c r="O1001" s="4"/>
+    </row>
+    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1002" s="3"/>
+      <c r="E1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="O1002" s="4"/>
+    </row>
+    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1003" s="3"/>
+      <c r="E1003" s="4"/>
+      <c r="I1003" s="4"/>
+      <c r="J1003" s="4"/>
+      <c r="O1003" s="4"/>
+    </row>
+    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1004" s="3"/>
+      <c r="E1004" s="4"/>
+      <c r="I1004" s="4"/>
+      <c r="J1004" s="4"/>
+      <c r="O1004" s="4"/>
+    </row>
+    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1005" s="3"/>
+      <c r="E1005" s="4"/>
+      <c r="I1005" s="4"/>
+      <c r="J1005" s="4"/>
+      <c r="O1005" s="4"/>
+    </row>
+    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1006" s="3"/>
+      <c r="E1006" s="4"/>
+      <c r="I1006" s="4"/>
+      <c r="J1006" s="4"/>
+      <c r="O1006" s="4"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D1008" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D1006" type="list">
       <formula1>modalita_output!$G$2:$G$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O1008" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O1006" type="list">
       <formula1>modalita_struttura!$H$3:$H$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1:J8 I2:I8 I9:J1008" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1:J6 I2:I6 I7:J1006" type="list">
       <formula1>modalita_struttura!$F$3:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E1008" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E1006" type="list">
       <formula1>modalita_struttura!$D$3:$D$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C1008" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C1006" type="list">
       <formula1>modalita_struttura!$B$3:$B$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -981,60 +7889,60 @@
       <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="G1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="G2" s="9" t="e">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="G2" s="4" t="e">
         <f aca="false" t="array" ref="G2:G7">_xlfn.unique(_xlfn._xlws.filter(A2:A1048576, A2:A1048576 &lt;&gt; ""))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="G3" s="9" t="e">
+    <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="G3" s="4" t="e">
         <v>#NAME?</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G4" s="0" t="e">
         <v>#NAME?</v>
@@ -1042,10 +7950,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="e">
         <v>#NAME?</v>
@@ -1053,10 +7961,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G6" s="0" t="e">
         <v>#NAME?</v>
@@ -1064,10 +7972,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="e">
         <v>#NAME?</v>
@@ -1075,106 +7983,106 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1199,29 +8107,29 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>79</v>
+      <c r="B2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,7 +8137,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
@@ -1240,48 +8148,48 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1293,7 +8201,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
